--- a/welldone_ner/Partials.xlsx
+++ b/welldone_ner/Partials.xlsx
@@ -5,10 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Default" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="NoTransfer" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Transfer" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Master" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Trainable" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
   <si>
     <t xml:space="preserve">Default</t>
   </si>
@@ -51,20 +55,57 @@
   <si>
     <t xml:space="preserve">Avg</t>
   </si>
+  <si>
+    <t xml:space="preserve">No Transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emb Trainable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRU Trainable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time/epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trial per settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True false create the highest f-1 of 84.14% with seed 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -80,6 +121,17 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,7 +176,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -133,8 +185,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -146,7 +222,1078 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Master!$J$5:$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Master!$I$6:$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.005</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Master!$J$6:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.551306758724964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.662492679723025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.611554622070844</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.533689432860326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.423839358319076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.062798073227845</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0784191615478719</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0453067816258296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Master!$K$5:$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Transfer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Master!$I$6:$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.005</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Master!$K$6:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.708984167860454</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.686339774827012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.605510113526708</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.567122513084271</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.456789367559741</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.256494504052503</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.107957059063521</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0591634099583456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Master!$L$5:$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transfer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Master!$I$6:$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.005</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Master!$L$6:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.728674222008352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.687003622760736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.584643029753235</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.566286326653322</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.477668589151841</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.341327896139741</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.256079494364974</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.214663414417514</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="51347718"/>
+        <c:axId val="91376692"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="51347718"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91376692"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="91376692"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51347718"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Master!$P$5:$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Master!$O$6:$O$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.005</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Master!$P$6:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Master!$Q$5:$Q$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Transfer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Master!$O$6:$O$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.005</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Master!$Q$6:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Master!$R$5:$R$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transfer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Master!$O$6:$O$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.005</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Master!$R$6:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="23756671"/>
+        <c:axId val="84878775"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="23756671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="84878775"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84878775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="23756671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>36000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>464400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>135000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6436800" y="2276280"/>
+        <a:ext cx="4428720" cy="2572920"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>18360</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>27720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>473040</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>108360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11219760" y="2303280"/>
+        <a:ext cx="4455000" cy="2519280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -156,14 +1303,11 @@
   </sheetPr>
   <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O10" activeCellId="0" sqref="O10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E85" activeCellId="0" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -263,19 +1407,24 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="0" t="n">
-        <v>0</v>
+        <f aca="false">Master!C2</f>
+        <v>1</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1</v>
+        <f aca="false">Master!D2</f>
+        <v>3</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>2</v>
+        <f aca="false">Master!E2</f>
+        <v>6</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>3</v>
+        <f aca="false">Master!F2</f>
+        <v>8</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>4</v>
+        <f aca="false">Master!G2</f>
+        <v>13</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
@@ -299,32 +1448,32 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="n">
-        <f aca="false">IF(H$6="","",VLOOKUP(H$6,$C3:$E17,3))</f>
-        <v>0.723930078360458</v>
+        <f aca="false">IF(Default!H$6="","",VLOOKUP(Default!H$6,Default!$C3:$E17,3))</f>
+        <v>0.481261154074955</v>
       </c>
       <c r="I7" s="1" t="n">
-        <f aca="false">IF(I$6="","",VLOOKUP(I$6,$C3:$E17,3))</f>
-        <v>0.481261154074955</v>
+        <f aca="false">IF(Default!I$6="","",VLOOKUP(Default!I$6,Default!$C3:$E17,3))</f>
+        <v>0.533638705983395</v>
       </c>
       <c r="J7" s="1" t="n">
-        <f aca="false">IF(J$6="","",VLOOKUP(J$6,$C3:$E17,3))</f>
-        <v>0.61381074168798</v>
+        <f aca="false">IF(Default!J$6="","",VLOOKUP(Default!J$6,Default!$C3:$E17,3))</f>
+        <v>0.453963838664812</v>
       </c>
       <c r="K7" s="1" t="n">
-        <f aca="false">IF(K$6="","",VLOOKUP(K$6,$C3:$E17,3))</f>
-        <v>0.533638705983395</v>
+        <f aca="false">IF(Default!K$6="","",VLOOKUP(Default!K$6,Default!$C3:$E17,3))</f>
+        <v>0.684514755095832</v>
       </c>
       <c r="L7" s="1" t="n">
-        <f aca="false">IF(L$6="","",VLOOKUP(L$6,$C3:$E17,3))</f>
-        <v>0.658956109134045</v>
+        <f aca="false">IF(Default!L$6="","",VLOOKUP(Default!L$6,Default!$C3:$E17,3))</f>
+        <v>0.603155339805825</v>
       </c>
       <c r="M7" s="1" t="n">
-        <f aca="false">SUM(H7:L7)</f>
-        <v>3.01159678924083</v>
+        <f aca="false">SUM(Default!H7:L7)</f>
+        <v>2.75653379362482</v>
       </c>
       <c r="N7" s="1" t="n">
-        <f aca="false">M7/COUNTA(H$6:L$6)</f>
-        <v>0.602319357848167</v>
+        <f aca="false">Default!M7/COUNTA(Default!H$6:L$6)</f>
+        <v>0.551306758724964</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -341,32 +1490,32 @@
         <v>0.699086354258768</v>
       </c>
       <c r="H8" s="0" t="n">
-        <f aca="false">IF(H$6="","",VLOOKUP(H$6,$C3:$E17,2))</f>
-        <v>13</v>
+        <f aca="false">IF(Default!H$6="","",VLOOKUP(Default!H$6,Default!$C3:$E17,2))</f>
+        <v>4</v>
       </c>
       <c r="I8" s="0" t="n">
-        <f aca="false">IF(I$6="","",VLOOKUP(I$6,$C3:$E17,2))</f>
+        <f aca="false">IF(Default!I$6="","",VLOOKUP(Default!I$6,Default!$C3:$E17,2))</f>
         <v>4</v>
       </c>
       <c r="J8" s="0" t="n">
-        <f aca="false">IF(J$6="","",VLOOKUP(J$6,$C3:$E17,2))</f>
-        <v>4</v>
+        <f aca="false">IF(Default!J$6="","",VLOOKUP(Default!J$6,Default!$C3:$E17,2))</f>
+        <v>11</v>
       </c>
       <c r="K8" s="0" t="n">
-        <f aca="false">IF(K$6="","",VLOOKUP(K$6,$C3:$E17,2))</f>
-        <v>4</v>
+        <f aca="false">IF(Default!K$6="","",VLOOKUP(Default!K$6,Default!$C3:$E17,2))</f>
+        <v>6</v>
       </c>
       <c r="L8" s="0" t="n">
-        <f aca="false">IF(L$6="","",VLOOKUP(L$6,$C3:$E17,2))</f>
+        <f aca="false">IF(Default!L$6="","",VLOOKUP(Default!L$6,Default!$C3:$E17,2))</f>
+        <v>5</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <f aca="false">SUM(Default!H8:L8)</f>
+        <v>30</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <f aca="false">Default!M8/COUNTA(Default!H$6:L$6)</f>
         <v>6</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <f aca="false">SUM(H8:L8)</f>
-        <v>31</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <f aca="false">M8/COUNTA(H$6:L$6)</f>
-        <v>6.2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -386,32 +1535,32 @@
         <v>0.5</v>
       </c>
       <c r="H9" s="1" t="n">
-        <f aca="false">IF(H$6="","",VLOOKUP(H$6,$C18:$E32,3))</f>
-        <v>0.645443196004994</v>
+        <f aca="false">IF(Default!H$6="","",VLOOKUP(Default!H$6,Default!$C18:$E32,3))</f>
+        <v>0.659502609763586</v>
       </c>
       <c r="I9" s="1" t="n">
-        <f aca="false">IF(I$6="","",VLOOKUP(I$6,$C18:$E32,3))</f>
-        <v>0.659502609763586</v>
+        <f aca="false">IF(Default!I$6="","",VLOOKUP(Default!I$6,Default!$C18:$E32,3))</f>
+        <v>0.653483992467043</v>
       </c>
       <c r="J9" s="1" t="n">
-        <f aca="false">IF(J$6="","",VLOOKUP(J$6,$C18:$E32,3))</f>
-        <v>0.675903614457831</v>
+        <f aca="false">IF(Default!J$6="","",VLOOKUP(Default!J$6,Default!$C18:$E32,3))</f>
+        <v>0.667270531400966</v>
       </c>
       <c r="K9" s="1" t="n">
-        <f aca="false">IF(K$6="","",VLOOKUP(K$6,$C18:$E32,3))</f>
-        <v>0.653483992467043</v>
+        <f aca="false">IF(Default!K$6="","",VLOOKUP(Default!K$6,Default!$C18:$E32,3))</f>
+        <v>0.668118195956454</v>
       </c>
       <c r="L9" s="1" t="n">
-        <f aca="false">IF(L$6="","",VLOOKUP(L$6,$C18:$E32,3))</f>
-        <v>0.657886484791471</v>
+        <f aca="false">IF(Default!L$6="","",VLOOKUP(Default!L$6,Default!$C18:$E32,3))</f>
+        <v>0.664088069027075</v>
       </c>
       <c r="M9" s="1" t="n">
-        <f aca="false">SUM(H9:L9)</f>
-        <v>3.29221989748492</v>
+        <f aca="false">SUM(Default!H9:L9)</f>
+        <v>3.31246339861512</v>
       </c>
       <c r="N9" s="1" t="n">
-        <f aca="false">M9/COUNTA(H$6:L$6)</f>
-        <v>0.658443979496985</v>
+        <f aca="false">Default!M9/COUNTA(Default!H$6:L$6)</f>
+        <v>0.662492679723025</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -428,32 +1577,32 @@
         <v>0.678260869565217</v>
       </c>
       <c r="H10" s="0" t="n">
-        <f aca="false">IF(H$6="","",VLOOKUP(H$6,$C$18:$E$32,2))</f>
-        <v>9</v>
+        <f aca="false">IF(Default!H$6="","",VLOOKUP(Default!H$6,Default!$C$18:$E$32,2))</f>
+        <v>11</v>
       </c>
       <c r="I10" s="0" t="n">
-        <f aca="false">IF(I$6="","",VLOOKUP(I$6,$C$18:$E$32,2))</f>
-        <v>11</v>
+        <f aca="false">IF(Default!I$6="","",VLOOKUP(Default!I$6,Default!$C$18:$E$32,2))</f>
+        <v>10</v>
       </c>
       <c r="J10" s="0" t="n">
-        <f aca="false">IF(J$6="","",VLOOKUP(J$6,$C$18:$E$32,2))</f>
-        <v>9</v>
+        <f aca="false">IF(Default!J$6="","",VLOOKUP(Default!J$6,Default!$C$18:$E$32,2))</f>
+        <v>13</v>
       </c>
       <c r="K10" s="0" t="n">
-        <f aca="false">IF(K$6="","",VLOOKUP(K$6,$C$18:$E$32,2))</f>
+        <f aca="false">IF(Default!K$6="","",VLOOKUP(Default!K$6,Default!$C$18:$E$32,2))</f>
         <v>10</v>
       </c>
       <c r="L10" s="0" t="n">
-        <f aca="false">IF(L$6="","",VLOOKUP(L$6,$C$18:$E$32,2))</f>
+        <f aca="false">IF(Default!L$6="","",VLOOKUP(Default!L$6,Default!$C$18:$E$32,2))</f>
         <v>13</v>
       </c>
       <c r="M10" s="0" t="n">
-        <f aca="false">SUM(H10:L10)</f>
-        <v>52</v>
+        <f aca="false">SUM(Default!H10:L10)</f>
+        <v>57</v>
       </c>
       <c r="N10" s="0" t="n">
-        <f aca="false">M10/COUNTA(H$6:L$6)</f>
-        <v>10.4</v>
+        <f aca="false">Default!M10/COUNTA(Default!H$6:L$6)</f>
+        <v>11.4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -473,32 +1622,32 @@
         <v>0.2</v>
       </c>
       <c r="H11" s="1" t="n">
-        <f aca="false">IF(H$6="","",VLOOKUP(H$6,$C$33:$E$47,3))</f>
-        <v>0.568847352024922</v>
+        <f aca="false">IF(Default!H$6="","",VLOOKUP(Default!H$6,Default!$C$33:$E$47,3))</f>
+        <v>0.618607516943931</v>
       </c>
       <c r="I11" s="1" t="n">
-        <f aca="false">IF(I$6="","",VLOOKUP(I$6,$C$33:$E$47,3))</f>
-        <v>0.618607516943931</v>
+        <f aca="false">IF(Default!I$6="","",VLOOKUP(Default!I$6,Default!$C$33:$E$47,3))</f>
+        <v>0.606870229007634</v>
       </c>
       <c r="J11" s="1" t="n">
-        <f aca="false">IF(J$6="","",VLOOKUP(J$6,$C$33:$E$47,3))</f>
-        <v>0.474740484429066</v>
+        <f aca="false">IF(Default!J$6="","",VLOOKUP(Default!J$6,Default!$C$33:$E$47,3))</f>
+        <v>0.619872379216044</v>
       </c>
       <c r="K11" s="1" t="n">
-        <f aca="false">IF(K$6="","",VLOOKUP(K$6,$C$33:$E$47,3))</f>
-        <v>0.606870229007634</v>
+        <f aca="false">IF(Default!K$6="","",VLOOKUP(Default!K$6,Default!$C$33:$E$47,3))</f>
+        <v>0.600564794477565</v>
       </c>
       <c r="L11" s="1" t="n">
-        <f aca="false">IF(L$6="","",VLOOKUP(L$6,$C$33:$E$47,3))</f>
-        <v>0.560528687293481</v>
+        <f aca="false">IF(Default!L$6="","",VLOOKUP(Default!L$6,Default!$C$33:$E$47,3))</f>
+        <v>0.611858190709046</v>
       </c>
       <c r="M11" s="1" t="n">
-        <f aca="false">SUM(H11:L11)</f>
-        <v>2.82959426969903</v>
+        <f aca="false">SUM(Default!H11:L11)</f>
+        <v>3.05777311035422</v>
       </c>
       <c r="N11" s="1" t="n">
-        <f aca="false">M11/COUNTA(H$6:L$6)</f>
-        <v>0.565918853939807</v>
+        <f aca="false">Default!M11/COUNTA(Default!H$6:L$6)</f>
+        <v>0.611554622070844</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -515,32 +1664,32 @@
         <v>0.917348079298782</v>
       </c>
       <c r="H12" s="0" t="n">
-        <f aca="false">IF(H$6="","",VLOOKUP(H$6,$C$33:$E$47,2))</f>
-        <v>11</v>
+        <f aca="false">IF(Default!H$6="","",VLOOKUP(Default!H$6,Default!$C$33:$E$47,2))</f>
+        <v>12</v>
       </c>
       <c r="I12" s="0" t="n">
-        <f aca="false">IF(I$6="","",VLOOKUP(I$6,$C$33:$E$47,2))</f>
-        <v>12</v>
+        <f aca="false">IF(Default!I$6="","",VLOOKUP(Default!I$6,Default!$C$33:$E$47,2))</f>
+        <v>9</v>
       </c>
       <c r="J12" s="0" t="n">
-        <f aca="false">IF(J$6="","",VLOOKUP(J$6,$C$33:$E$47,2))</f>
-        <v>6</v>
+        <f aca="false">IF(Default!J$6="","",VLOOKUP(Default!J$6,Default!$C$33:$E$47,2))</f>
+        <v>14</v>
       </c>
       <c r="K12" s="0" t="n">
-        <f aca="false">IF(K$6="","",VLOOKUP(K$6,$C$33:$E$47,2))</f>
-        <v>9</v>
+        <f aca="false">IF(Default!K$6="","",VLOOKUP(Default!K$6,Default!$C$33:$E$47,2))</f>
+        <v>13</v>
       </c>
       <c r="L12" s="0" t="n">
-        <f aca="false">IF(L$6="","",VLOOKUP(L$6,$C$33:$E$47,2))</f>
-        <v>11</v>
+        <f aca="false">IF(Default!L$6="","",VLOOKUP(Default!L$6,Default!$C$33:$E$47,2))</f>
+        <v>15</v>
       </c>
       <c r="M12" s="0" t="n">
-        <f aca="false">SUM(H12:L12)</f>
-        <v>49</v>
+        <f aca="false">SUM(Default!H12:L12)</f>
+        <v>63</v>
       </c>
       <c r="N12" s="0" t="n">
-        <f aca="false">M12/COUNTA(H$6:L$6)</f>
-        <v>9.8</v>
+        <f aca="false">Default!M12/COUNTA(Default!H$6:L$6)</f>
+        <v>12.6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -560,32 +1709,32 @@
         <v>0.1</v>
       </c>
       <c r="H13" s="1" t="n">
-        <f aca="false">IF(H$6="","",VLOOKUP(H$6,$C$48:$E$62,3))</f>
-        <v>0.567877629063098</v>
+        <f aca="false">IF(Default!H$6="","",VLOOKUP(Default!H$6,Default!$C$48:$E$62,3))</f>
+        <v>0.557710064635272</v>
       </c>
       <c r="I13" s="1" t="n">
-        <f aca="false">IF(I$6="","",VLOOKUP(I$6,$C$48:$E$62,3))</f>
-        <v>0.557710064635272</v>
+        <f aca="false">IF(Default!I$6="","",VLOOKUP(Default!I$6,Default!$C$48:$E$62,3))</f>
+        <v>0.510939077751599</v>
       </c>
       <c r="J13" s="1" t="n">
-        <f aca="false">IF(J$6="","",VLOOKUP(J$6,$C$48:$E$62,3))</f>
-        <v>0.545271629778672</v>
+        <f aca="false">IF(Default!J$6="","",VLOOKUP(Default!J$6,Default!$C$48:$E$62,3))</f>
+        <v>0.481894150417827</v>
       </c>
       <c r="K13" s="1" t="n">
-        <f aca="false">IF(K$6="","",VLOOKUP(K$6,$C$48:$E$62,3))</f>
-        <v>0.510939077751599</v>
+        <f aca="false">IF(Default!K$6="","",VLOOKUP(Default!K$6,Default!$C$48:$E$62,3))</f>
+        <v>0.578011849901251</v>
       </c>
       <c r="L13" s="1" t="n">
-        <f aca="false">IF(L$6="","",VLOOKUP(L$6,$C$48:$E$62,3))</f>
-        <v>0.537825810553083</v>
+        <f aca="false">IF(Default!L$6="","",VLOOKUP(Default!L$6,Default!$C$48:$E$62,3))</f>
+        <v>0.539892021595681</v>
       </c>
       <c r="M13" s="1" t="n">
-        <f aca="false">SUM(H13:L13)</f>
-        <v>2.71962421178172</v>
+        <f aca="false">SUM(Default!H13:L13)</f>
+        <v>2.66844716430163</v>
       </c>
       <c r="N13" s="1" t="n">
-        <f aca="false">M13/COUNTA(H$6:L$6)</f>
-        <v>0.543924842356345</v>
+        <f aca="false">Default!M13/COUNTA(Default!H$6:L$6)</f>
+        <v>0.533689432860326</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -602,32 +1751,32 @@
         <v>0.64382676147382</v>
       </c>
       <c r="H14" s="0" t="n">
-        <f aca="false">IF(H$6="","",VLOOKUP(H$6,$C$48:$E$62,2))</f>
-        <v>17</v>
+        <f aca="false">IF(Default!H$6="","",VLOOKUP(Default!H$6,Default!$C$48:$E$62,2))</f>
+        <v>16</v>
       </c>
       <c r="I14" s="0" t="n">
-        <f aca="false">IF(I$6="","",VLOOKUP(I$6,$C$48:$E$62,2))</f>
+        <f aca="false">IF(Default!I$6="","",VLOOKUP(Default!I$6,Default!$C$48:$E$62,2))</f>
+        <v>10</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">IF(Default!J$6="","",VLOOKUP(Default!J$6,Default!$C$48:$E$62,2))</f>
+        <v>11</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">IF(Default!K$6="","",VLOOKUP(Default!K$6,Default!$C$48:$E$62,2))</f>
         <v>16</v>
       </c>
-      <c r="J14" s="0" t="n">
-        <f aca="false">IF(J$6="","",VLOOKUP(J$6,$C$48:$E$62,2))</f>
-        <v>12</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <f aca="false">IF(K$6="","",VLOOKUP(K$6,$C$48:$E$62,2))</f>
-        <v>10</v>
-      </c>
       <c r="L14" s="0" t="n">
-        <f aca="false">IF(L$6="","",VLOOKUP(L$6,$C$48:$E$62,2))</f>
-        <v>18</v>
+        <f aca="false">IF(Default!L$6="","",VLOOKUP(Default!L$6,Default!$C$48:$E$62,2))</f>
+        <v>14</v>
       </c>
       <c r="M14" s="0" t="n">
-        <f aca="false">SUM(H14:L14)</f>
-        <v>73</v>
+        <f aca="false">SUM(Default!H14:L14)</f>
+        <v>67</v>
       </c>
       <c r="N14" s="0" t="n">
-        <f aca="false">M14/COUNTA(H$6:L$6)</f>
-        <v>14.6</v>
+        <f aca="false">Default!M14/COUNTA(Default!H$6:L$6)</f>
+        <v>13.4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -647,32 +1796,32 @@
         <v>0.05</v>
       </c>
       <c r="H15" s="1" t="n">
-        <f aca="false">IF(H$6="","",VLOOKUP(H$6,$C$63:$E$77,3))</f>
-        <v>0.327566320645905</v>
+        <f aca="false">IF(Default!H$6="","",VLOOKUP(Default!H$6,Default!$C$63:$E$77,3))</f>
+        <v>0.447645818692902</v>
       </c>
       <c r="I15" s="1" t="n">
-        <f aca="false">IF(I$6="","",VLOOKUP(I$6,$C$63:$E$77,3))</f>
-        <v>0.447645818692902</v>
+        <f aca="false">IF(Default!I$6="","",VLOOKUP(Default!I$6,Default!$C$63:$E$77,3))</f>
+        <v>0.469664525339044</v>
       </c>
       <c r="J15" s="1" t="n">
-        <f aca="false">IF(J$6="","",VLOOKUP(J$6,$C$63:$E$77,3))</f>
-        <v>0.446637426900585</v>
+        <f aca="false">IF(Default!J$6="","",VLOOKUP(Default!J$6,Default!$C$63:$E$77,3))</f>
+        <v>0.268433571185865</v>
       </c>
       <c r="K15" s="1" t="n">
-        <f aca="false">IF(K$6="","",VLOOKUP(K$6,$C$63:$E$77,3))</f>
-        <v>0.469664525339044</v>
+        <f aca="false">IF(Default!K$6="","",VLOOKUP(Default!K$6,Default!$C$63:$E$77,3))</f>
+        <v>0.476037311032486</v>
       </c>
       <c r="L15" s="1" t="n">
-        <f aca="false">IF(L$6="","",VLOOKUP(L$6,$C$63:$E$77,3))</f>
-        <v>0.435643564356436</v>
+        <f aca="false">IF(Default!L$6="","",VLOOKUP(Default!L$6,Default!$C$63:$E$77,3))</f>
+        <v>0.457415565345081</v>
       </c>
       <c r="M15" s="1" t="n">
-        <f aca="false">SUM(H15:L15)</f>
-        <v>2.12715765593487</v>
+        <f aca="false">SUM(Default!H15:L15)</f>
+        <v>2.11919679159538</v>
       </c>
       <c r="N15" s="1" t="n">
-        <f aca="false">M15/COUNTA(H$6:L$6)</f>
-        <v>0.425431531186974</v>
+        <f aca="false">Default!M15/COUNTA(Default!H$6:L$6)</f>
+        <v>0.423839358319076</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -689,32 +1838,32 @@
         <v>0.603155339805825</v>
       </c>
       <c r="H16" s="0" t="n">
-        <f aca="false">IF(H$6="","",VLOOKUP(H$6,$C$63:$E$77,2))</f>
+        <f aca="false">IF(Default!H$6="","",VLOOKUP(Default!H$6,Default!$C$63:$E$77,2))</f>
+        <v>18</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">IF(Default!I$6="","",VLOOKUP(Default!I$6,Default!$C$63:$E$77,2))</f>
+        <v>11</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">IF(Default!J$6="","",VLOOKUP(Default!J$6,Default!$C$63:$E$77,2))</f>
         <v>9</v>
       </c>
-      <c r="I16" s="0" t="n">
-        <f aca="false">IF(I$6="","",VLOOKUP(I$6,$C$63:$E$77,2))</f>
-        <v>18</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <f aca="false">IF(J$6="","",VLOOKUP(J$6,$C$63:$E$77,2))</f>
-        <v>20</v>
-      </c>
       <c r="K16" s="0" t="n">
-        <f aca="false">IF(K$6="","",VLOOKUP(K$6,$C$63:$E$77,2))</f>
+        <f aca="false">IF(Default!K$6="","",VLOOKUP(Default!K$6,Default!$C$63:$E$77,2))</f>
         <v>11</v>
       </c>
       <c r="L16" s="0" t="n">
-        <f aca="false">IF(L$6="","",VLOOKUP(L$6,$C$63:$E$77,2))</f>
-        <v>18</v>
+        <f aca="false">IF(Default!L$6="","",VLOOKUP(Default!L$6,Default!$C$63:$E$77,2))</f>
+        <v>16</v>
       </c>
       <c r="M16" s="0" t="n">
-        <f aca="false">SUM(H16:L16)</f>
-        <v>76</v>
+        <f aca="false">SUM(Default!H16:L16)</f>
+        <v>65</v>
       </c>
       <c r="N16" s="0" t="n">
-        <f aca="false">M16/COUNTA(H$6:L$6)</f>
-        <v>15.2</v>
+        <f aca="false">Default!M16/COUNTA(Default!H$6:L$6)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -734,32 +1883,32 @@
         <v>0.02</v>
       </c>
       <c r="H17" s="1" t="n">
-        <f aca="false">IF(H$6="","",VLOOKUP(H$6,$C$78:$E$92,3))</f>
-        <v>0.224276767074262</v>
+        <f aca="false">IF(Default!H$6="","",VLOOKUP(Default!H$6,Default!$C$78:$E$92,3))</f>
+        <v>0.052757793764988</v>
       </c>
       <c r="I17" s="1" t="n">
-        <f aca="false">IF(I$6="","",VLOOKUP(I$6,$C$78:$E$92,3))</f>
-        <v>0.052757793764988</v>
+        <f aca="false">IF(Default!I$6="","",VLOOKUP(Default!I$6,Default!$C$78:$E$92,3))</f>
+        <v>0.133594429939077</v>
       </c>
       <c r="J17" s="1" t="n">
-        <f aca="false">IF(J$6="","",VLOOKUP(J$6,$C$78:$E$92,3))</f>
-        <v>0.0123526108927569</v>
+        <f aca="false">IF(Default!J$6="","",VLOOKUP(Default!J$6,Default!$C$78:$E$92,3))</f>
+        <v>0.0691466083150985</v>
       </c>
       <c r="K17" s="1" t="n">
-        <f aca="false">IF(K$6="","",VLOOKUP(K$6,$C$78:$E$92,3))</f>
-        <v>0.133594429939077</v>
+        <f aca="false">IF(Default!K$6="","",VLOOKUP(Default!K$6,Default!$C$78:$E$92,3))</f>
+        <v>0.0584915341200616</v>
       </c>
       <c r="L17" s="1" t="n">
-        <f aca="false">IF(L$6="","",VLOOKUP(L$6,$C$78:$E$92,3))</f>
-        <v>0.116684841875682</v>
+        <f aca="false">IF(Default!L$6="","",VLOOKUP(Default!L$6,Default!$C$78:$E$92,3))</f>
+        <v>0</v>
       </c>
       <c r="M17" s="1" t="n">
-        <f aca="false">SUM(H17:L17)</f>
-        <v>0.539666443546766</v>
+        <f aca="false">SUM(Default!H17:L17)</f>
+        <v>0.313990366139225</v>
       </c>
       <c r="N17" s="1" t="n">
-        <f aca="false">M17/COUNTA(H$6:L$6)</f>
-        <v>0.107933288709353</v>
+        <f aca="false">Default!M17/COUNTA(Default!H$6:L$6)</f>
+        <v>0.062798073227845</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -776,32 +1925,32 @@
         <v>0.645443196004994</v>
       </c>
       <c r="H18" s="0" t="n">
-        <f aca="false">IF(H$6="","",VLOOKUP(H$6,$C$78:$E$92,2))</f>
-        <v>18</v>
+        <f aca="false">IF(Default!H$6="","",VLOOKUP(Default!H$6,Default!$C$78:$E$92,2))</f>
+        <v>2</v>
       </c>
       <c r="I18" s="0" t="n">
-        <f aca="false">IF(I$6="","",VLOOKUP(I$6,$C$78:$E$92,2))</f>
+        <f aca="false">IF(Default!I$6="","",VLOOKUP(Default!I$6,Default!$C$78:$E$92,2))</f>
         <v>2</v>
       </c>
       <c r="J18" s="0" t="n">
-        <f aca="false">IF(J$6="","",VLOOKUP(J$6,$C$78:$E$92,2))</f>
+        <f aca="false">IF(Default!J$6="","",VLOOKUP(Default!J$6,Default!$C$78:$E$92,2))</f>
         <v>2</v>
       </c>
       <c r="K18" s="0" t="n">
-        <f aca="false">IF(K$6="","",VLOOKUP(K$6,$C$78:$E$92,2))</f>
+        <f aca="false">IF(Default!K$6="","",VLOOKUP(Default!K$6,Default!$C$78:$E$92,2))</f>
         <v>2</v>
       </c>
       <c r="L18" s="0" t="n">
-        <f aca="false">IF(L$6="","",VLOOKUP(L$6,$C$78:$E$92,2))</f>
+        <f aca="false">IF(Default!L$6="","",VLOOKUP(Default!L$6,Default!$C$78:$E$92,2))</f>
         <v>2</v>
       </c>
       <c r="M18" s="0" t="n">
-        <f aca="false">SUM(H18:L18)</f>
-        <v>26</v>
+        <f aca="false">SUM(Default!H18:L18)</f>
+        <v>10</v>
       </c>
       <c r="N18" s="0" t="n">
-        <f aca="false">M18/COUNTA(H$6:L$6)</f>
-        <v>5.2</v>
+        <f aca="false">Default!M18/COUNTA(Default!H$6:L$6)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -821,32 +1970,32 @@
         <v>0.01</v>
       </c>
       <c r="H19" s="1" t="n">
-        <f aca="false">IF(H$6="","",VLOOKUP(H$6,$C$93:$E$107,3))</f>
-        <v>0.00340715502555366</v>
+        <f aca="false">IF(Default!H$6="","",VLOOKUP(Default!H$6,Default!$C$93:$E$107,3))</f>
+        <v>0.080062184220754</v>
       </c>
       <c r="I19" s="1" t="n">
-        <f aca="false">IF(I$6="","",VLOOKUP(I$6,$C$93:$E$107,3))</f>
-        <v>0.080062184220754</v>
+        <f aca="false">IF(Default!I$6="","",VLOOKUP(Default!I$6,Default!$C$93:$E$107,3))</f>
+        <v>0.0426638917793965</v>
       </c>
       <c r="J19" s="1" t="n">
-        <f aca="false">IF(J$6="","",VLOOKUP(J$6,$C$93:$E$107,3))</f>
-        <v>0.119232763089684</v>
+        <f aca="false">IF(Default!J$6="","",VLOOKUP(Default!J$6,Default!$C$93:$E$107,3))</f>
+        <v>0.15786484951732</v>
       </c>
       <c r="K19" s="1" t="n">
-        <f aca="false">IF(K$6="","",VLOOKUP(K$6,$C$93:$E$107,3))</f>
-        <v>0.0426638917793965</v>
+        <f aca="false">IF(Default!K$6="","",VLOOKUP(Default!K$6,Default!$C$93:$E$107,3))</f>
+        <v>0.0459657701711492</v>
       </c>
       <c r="L19" s="1" t="n">
-        <f aca="false">IF(L$6="","",VLOOKUP(L$6,$C$93:$E$107,3))</f>
-        <v>0.256341068537507</v>
+        <f aca="false">IF(Default!L$6="","",VLOOKUP(Default!L$6,Default!$C$93:$E$107,3))</f>
+        <v>0.06553911205074</v>
       </c>
       <c r="M19" s="1" t="n">
-        <f aca="false">SUM(H19:L19)</f>
-        <v>0.501707062652895</v>
+        <f aca="false">SUM(Default!H19:L19)</f>
+        <v>0.39209580773936</v>
       </c>
       <c r="N19" s="1" t="n">
-        <f aca="false">M19/COUNTA(H$6:L$6)</f>
-        <v>0.100341412530579</v>
+        <f aca="false">Default!M19/COUNTA(Default!H$6:L$6)</f>
+        <v>0.0784191615478719</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -863,32 +2012,32 @@
         <v>0.675903614457831</v>
       </c>
       <c r="H20" s="0" t="n">
-        <f aca="false">IF(H$6="","",VLOOKUP(H$6,$C$93:$E$107,2))</f>
-        <v>3</v>
+        <f aca="false">IF(Default!H$6="","",VLOOKUP(Default!H$6,Default!$C$93:$E$107,2))</f>
+        <v>2</v>
       </c>
       <c r="I20" s="0" t="n">
-        <f aca="false">IF(I$6="","",VLOOKUP(I$6,$C$93:$E$107,2))</f>
+        <f aca="false">IF(Default!I$6="","",VLOOKUP(Default!I$6,Default!$C$93:$E$107,2))</f>
         <v>2</v>
       </c>
       <c r="J20" s="0" t="n">
-        <f aca="false">IF(J$6="","",VLOOKUP(J$6,$C$93:$E$107,2))</f>
-        <v>15</v>
+        <f aca="false">IF(Default!J$6="","",VLOOKUP(Default!J$6,Default!$C$93:$E$107,2))</f>
+        <v>2</v>
       </c>
       <c r="K20" s="0" t="n">
-        <f aca="false">IF(K$6="","",VLOOKUP(K$6,$C$93:$E$107,2))</f>
+        <f aca="false">IF(Default!K$6="","",VLOOKUP(Default!K$6,Default!$C$93:$E$107,2))</f>
         <v>2</v>
       </c>
       <c r="L20" s="0" t="n">
-        <f aca="false">IF(L$6="","",VLOOKUP(L$6,$C$93:$E$107,2))</f>
-        <v>18</v>
+        <f aca="false">IF(Default!L$6="","",VLOOKUP(Default!L$6,Default!$C$93:$E$107,2))</f>
+        <v>2</v>
       </c>
       <c r="M20" s="0" t="n">
-        <f aca="false">SUM(H20:L20)</f>
-        <v>40</v>
+        <f aca="false">SUM(Default!H20:L20)</f>
+        <v>10</v>
       </c>
       <c r="N20" s="0" t="n">
-        <f aca="false">M20/COUNTA(H$6:L$6)</f>
-        <v>8</v>
+        <f aca="false">Default!M20/COUNTA(Default!H$6:L$6)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,32 +2057,32 @@
         <v>0.005</v>
       </c>
       <c r="H21" s="1" t="n">
-        <f aca="false">IF(H$6="","",VLOOKUP(H$6,$C$108:$E$122,3))</f>
-        <v>0.053246013667426</v>
+        <f aca="false">IF(Default!H$6="","",VLOOKUP(Default!H$6,Default!$C$108:$E$122,3))</f>
+        <v>0.104343605920893</v>
       </c>
       <c r="I21" s="1" t="n">
-        <f aca="false">IF(I$6="","",VLOOKUP(I$6,$C$108:$E$122,3))</f>
-        <v>0.104343605920893</v>
+        <f aca="false">IF(Default!I$6="","",VLOOKUP(Default!I$6,Default!$C$108:$E$122,3))</f>
+        <v>0.00225098480585256</v>
       </c>
       <c r="J21" s="1" t="n">
-        <f aca="false">IF(J$6="","",VLOOKUP(J$6,$C$108:$E$122,3))</f>
-        <v>0.212070874861573</v>
+        <f aca="false">IF(Default!J$6="","",VLOOKUP(Default!J$6,Default!$C$108:$E$122,3))</f>
+        <v>0.0559646539027982</v>
       </c>
       <c r="K21" s="1" t="n">
-        <f aca="false">IF(K$6="","",VLOOKUP(K$6,$C$108:$E$122,3))</f>
-        <v>0.00225098480585256</v>
+        <f aca="false">IF(Default!K$6="","",VLOOKUP(Default!K$6,Default!$C$108:$E$122,3))</f>
+        <v>0.0639746634996041</v>
       </c>
       <c r="L21" s="1" t="n">
-        <f aca="false">IF(L$6="","",VLOOKUP(L$6,$C$108:$E$122,3))</f>
-        <v>0.20041928721174</v>
+        <f aca="false">IF(Default!L$6="","",VLOOKUP(Default!L$6,Default!$C$108:$E$122,3))</f>
+        <v>0</v>
       </c>
       <c r="M21" s="1" t="n">
-        <f aca="false">SUM(H21:L21)</f>
-        <v>0.572330766467484</v>
+        <f aca="false">SUM(Default!H21:L21)</f>
+        <v>0.226533908129148</v>
       </c>
       <c r="N21" s="1" t="n">
-        <f aca="false">M21/COUNTA(H$6:L$6)</f>
-        <v>0.114466153293497</v>
+        <f aca="false">Default!M21/COUNTA(Default!H$6:L$6)</f>
+        <v>0.0453067816258296</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,32 +2099,32 @@
         <v>0.657886484791471</v>
       </c>
       <c r="H22" s="0" t="n">
-        <f aca="false">IF(H$6="","",VLOOKUP(H$6,$C$108:$E$122,2))</f>
+        <f aca="false">IF(Default!H$6="","",VLOOKUP(Default!H$6,Default!$C$108:$E$122,2))</f>
         <v>2</v>
       </c>
       <c r="I22" s="0" t="n">
-        <f aca="false">IF(I$6="","",VLOOKUP(I$6,$C$108:$E$122,2))</f>
+        <f aca="false">IF(Default!I$6="","",VLOOKUP(Default!I$6,Default!$C$108:$E$122,2))</f>
         <v>2</v>
       </c>
       <c r="J22" s="0" t="n">
-        <f aca="false">IF(J$6="","",VLOOKUP(J$6,$C$108:$E$122,2))</f>
+        <f aca="false">IF(Default!J$6="","",VLOOKUP(Default!J$6,Default!$C$108:$E$122,2))</f>
         <v>2</v>
       </c>
       <c r="K22" s="0" t="n">
-        <f aca="false">IF(K$6="","",VLOOKUP(K$6,$C$108:$E$122,2))</f>
+        <f aca="false">IF(Default!K$6="","",VLOOKUP(Default!K$6,Default!$C$108:$E$122,2))</f>
         <v>2</v>
       </c>
       <c r="L22" s="0" t="n">
-        <f aca="false">IF(L$6="","",VLOOKUP(L$6,$C$108:$E$122,2))</f>
-        <v>18</v>
+        <f aca="false">IF(Default!L$6="","",VLOOKUP(Default!L$6,Default!$C$108:$E$122,2))</f>
+        <v>2</v>
       </c>
       <c r="M22" s="0" t="n">
-        <f aca="false">SUM(H22:L22)</f>
-        <v>26</v>
+        <f aca="false">SUM(Default!H22:L22)</f>
+        <v>10</v>
       </c>
       <c r="N22" s="0" t="n">
-        <f aca="false">M22/COUNTA(H$6:L$6)</f>
-        <v>5.2</v>
+        <f aca="false">Default!M22/COUNTA(Default!H$6:L$6)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2393,4 +3542,5295 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N122"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A122" activeCellId="0" sqref="A122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.651753325272068</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.678066037735849</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.708952959028832</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.722354340071344</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="0" t="n">
+        <f aca="false">Master!C2</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">Master!D2</f>
+        <v>3</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <f aca="false">Master!E2</f>
+        <v>6</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">Master!F2</f>
+        <v>8</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <f aca="false">Master!G2</f>
+        <v>13</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.719952634695086</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <f aca="false">IF(NoTransfer!H$6="","",VLOOKUP(NoTransfer!H$6,NoTransfer!$C3:$E17,3))</f>
+        <v>0.678066037735849</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <f aca="false">IF(NoTransfer!I$6="","",VLOOKUP(NoTransfer!I$6,NoTransfer!$C3:$E17,3))</f>
+        <v>0.722354340071344</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <f aca="false">IF(NoTransfer!J$6="","",VLOOKUP(NoTransfer!J$6,NoTransfer!$C3:$E17,3))</f>
+        <v>0.712466686408054</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <f aca="false">IF(NoTransfer!K$6="","",VLOOKUP(NoTransfer!K$6,NoTransfer!$C3:$E17,3))</f>
+        <v>0.709579933514657</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <f aca="false">IF(NoTransfer!L$6="","",VLOOKUP(NoTransfer!L$6,NoTransfer!$C3:$E17,3))</f>
+        <v>0.722453841572365</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">SUM(NoTransfer!H7:L7)</f>
+        <v>3.54492083930227</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <f aca="false">NoTransfer!M7/COUNTA(NoTransfer!H$6:L$6)</f>
+        <v>0.708984167860454</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.710136336692353</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">IF(NoTransfer!H$6="","",VLOOKUP(NoTransfer!H$6,NoTransfer!$C3:$E17,2))</f>
+        <v>19</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">IF(NoTransfer!I$6="","",VLOOKUP(NoTransfer!I$6,NoTransfer!$C3:$E17,2))</f>
+        <v>25</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">IF(NoTransfer!J$6="","",VLOOKUP(NoTransfer!J$6,NoTransfer!$C3:$E17,2))</f>
+        <v>23</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">IF(NoTransfer!K$6="","",VLOOKUP(NoTransfer!K$6,NoTransfer!$C3:$E17,2))</f>
+        <v>18</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <f aca="false">IF(NoTransfer!L$6="","",VLOOKUP(NoTransfer!L$6,NoTransfer!$C3:$E17,2))</f>
+        <v>30</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <f aca="false">SUM(NoTransfer!H8:L8)</f>
+        <v>115</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <f aca="false">NoTransfer!M8/COUNTA(NoTransfer!H$6:L$6)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.712466686408054</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <f aca="false">IF(NoTransfer!H$6="","",VLOOKUP(NoTransfer!H$6,NoTransfer!$C18:$E32,3))</f>
+        <v>0.672645739910314</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <f aca="false">IF(NoTransfer!I$6="","",VLOOKUP(NoTransfer!I$6,NoTransfer!$C18:$E32,3))</f>
+        <v>0.689956331877729</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <f aca="false">IF(NoTransfer!J$6="","",VLOOKUP(NoTransfer!J$6,NoTransfer!$C18:$E32,3))</f>
+        <v>0.682971568327729</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <f aca="false">IF(NoTransfer!K$6="","",VLOOKUP(NoTransfer!K$6,NoTransfer!$C18:$E32,3))</f>
+        <v>0.702421084891204</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <f aca="false">IF(NoTransfer!L$6="","",VLOOKUP(NoTransfer!L$6,NoTransfer!$C18:$E32,3))</f>
+        <v>0.683704149128082</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <f aca="false">SUM(NoTransfer!H9:L9)</f>
+        <v>3.43169887413506</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <f aca="false">NoTransfer!M9/COUNTA(NoTransfer!H$6:L$6)</f>
+        <v>0.686339774827012</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.714028776978417</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">IF(NoTransfer!H$6="","",VLOOKUP(NoTransfer!H$6,NoTransfer!$C$18:$E$32,2))</f>
+        <v>18</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">IF(NoTransfer!I$6="","",VLOOKUP(NoTransfer!I$6,NoTransfer!$C$18:$E$32,2))</f>
+        <v>27</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <f aca="false">IF(NoTransfer!J$6="","",VLOOKUP(NoTransfer!J$6,NoTransfer!$C$18:$E$32,2))</f>
+        <v>21</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">IF(NoTransfer!K$6="","",VLOOKUP(NoTransfer!K$6,NoTransfer!$C$18:$E$32,2))</f>
+        <v>34</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <f aca="false">IF(NoTransfer!L$6="","",VLOOKUP(NoTransfer!L$6,NoTransfer!$C$18:$E$32,2))</f>
+        <v>25</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <f aca="false">SUM(NoTransfer!H10:L10)</f>
+        <v>125</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <f aca="false">NoTransfer!M10/COUNTA(NoTransfer!H$6:L$6)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.709579933514657</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <f aca="false">IF(NoTransfer!H$6="","",VLOOKUP(NoTransfer!H$6,NoTransfer!$C$33:$E$47,3))</f>
+        <v>0.609625668449198</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <f aca="false">IF(NoTransfer!I$6="","",VLOOKUP(NoTransfer!I$6,NoTransfer!$C$33:$E$47,3))</f>
+        <v>0.588669125041904</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <f aca="false">IF(NoTransfer!J$6="","",VLOOKUP(NoTransfer!J$6,NoTransfer!$C$33:$E$47,3))</f>
+        <v>0.574429771908764</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <f aca="false">IF(NoTransfer!K$6="","",VLOOKUP(NoTransfer!K$6,NoTransfer!$C$33:$E$47,3))</f>
+        <v>0.616541353383459</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <f aca="false">IF(NoTransfer!L$6="","",VLOOKUP(NoTransfer!L$6,NoTransfer!$C$33:$E$47,3))</f>
+        <v>0.638284648850217</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">SUM(NoTransfer!H11:L11)</f>
+        <v>3.02755056763354</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <f aca="false">NoTransfer!M11/COUNTA(NoTransfer!H$6:L$6)</f>
+        <v>0.605510113526708</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.925840843494139</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">IF(NoTransfer!H$6="","",VLOOKUP(NoTransfer!H$6,NoTransfer!$C$33:$E$47,2))</f>
+        <v>18</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">IF(NoTransfer!I$6="","",VLOOKUP(NoTransfer!I$6,NoTransfer!$C$33:$E$47,2))</f>
+        <v>15</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">IF(NoTransfer!J$6="","",VLOOKUP(NoTransfer!J$6,NoTransfer!$C$33:$E$47,2))</f>
+        <v>14</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">IF(NoTransfer!K$6="","",VLOOKUP(NoTransfer!K$6,NoTransfer!$C$33:$E$47,2))</f>
+        <v>17</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <f aca="false">IF(NoTransfer!L$6="","",VLOOKUP(NoTransfer!L$6,NoTransfer!$C$33:$E$47,2))</f>
+        <v>25</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <f aca="false">SUM(NoTransfer!H12:L12)</f>
+        <v>89</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <f aca="false">NoTransfer!M12/COUNTA(NoTransfer!H$6:L$6)</f>
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0.928541973490427</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <f aca="false">IF(NoTransfer!H$6="","",VLOOKUP(NoTransfer!H$6,NoTransfer!$C$48:$E$62,3))</f>
+        <v>0.575615840349236</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <f aca="false">IF(NoTransfer!I$6="","",VLOOKUP(NoTransfer!I$6,NoTransfer!$C$48:$E$62,3))</f>
+        <v>0.550150956055015</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <f aca="false">IF(NoTransfer!J$6="","",VLOOKUP(NoTransfer!J$6,NoTransfer!$C$48:$E$62,3))</f>
+        <v>0.536506915406883</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <f aca="false">IF(NoTransfer!K$6="","",VLOOKUP(NoTransfer!K$6,NoTransfer!$C$48:$E$62,3))</f>
+        <v>0.604592639194715</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <f aca="false">IF(NoTransfer!L$6="","",VLOOKUP(NoTransfer!L$6,NoTransfer!$C$48:$E$62,3))</f>
+        <v>0.568746214415506</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <f aca="false">SUM(NoTransfer!H13:L13)</f>
+        <v>2.83561256542135</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <f aca="false">NoTransfer!M13/COUNTA(NoTransfer!H$6:L$6)</f>
+        <v>0.567122513084271</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0.703152885187388</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <f aca="false">IF(NoTransfer!H$6="","",VLOOKUP(NoTransfer!H$6,NoTransfer!$C$48:$E$62,2))</f>
+        <v>27</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">IF(NoTransfer!I$6="","",VLOOKUP(NoTransfer!I$6,NoTransfer!$C$48:$E$62,2))</f>
+        <v>28</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">IF(NoTransfer!J$6="","",VLOOKUP(NoTransfer!J$6,NoTransfer!$C$48:$E$62,2))</f>
+        <v>20</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">IF(NoTransfer!K$6="","",VLOOKUP(NoTransfer!K$6,NoTransfer!$C$48:$E$62,2))</f>
+        <v>23</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <f aca="false">IF(NoTransfer!L$6="","",VLOOKUP(NoTransfer!L$6,NoTransfer!$C$48:$E$62,2))</f>
+        <v>23</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <f aca="false">SUM(NoTransfer!H14:L14)</f>
+        <v>121</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <f aca="false">NoTransfer!M14/COUNTA(NoTransfer!H$6:L$6)</f>
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0.931872374247757</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <f aca="false">IF(NoTransfer!H$6="","",VLOOKUP(NoTransfer!H$6,NoTransfer!$C$63:$E$77,3))</f>
+        <v>0.419700214132762</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <f aca="false">IF(NoTransfer!I$6="","",VLOOKUP(NoTransfer!I$6,NoTransfer!$C$63:$E$77,3))</f>
+        <v>0.510089315249752</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <f aca="false">IF(NoTransfer!J$6="","",VLOOKUP(NoTransfer!J$6,NoTransfer!$C$63:$E$77,3))</f>
+        <v>0.442251461988304</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <f aca="false">IF(NoTransfer!K$6="","",VLOOKUP(NoTransfer!K$6,NoTransfer!$C$63:$E$77,3))</f>
+        <v>0.446545454545454</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <f aca="false">IF(NoTransfer!L$6="","",VLOOKUP(NoTransfer!L$6,NoTransfer!$C$63:$E$77,3))</f>
+        <v>0.465360391882435</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <f aca="false">SUM(NoTransfer!H15:L15)</f>
+        <v>2.28394683779871</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <f aca="false">NoTransfer!M15/COUNTA(NoTransfer!H$6:L$6)</f>
+        <v>0.456789367559741</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0.722453841572365</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <f aca="false">IF(NoTransfer!H$6="","",VLOOKUP(NoTransfer!H$6,NoTransfer!$C$63:$E$77,2))</f>
+        <v>22</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">IF(NoTransfer!I$6="","",VLOOKUP(NoTransfer!I$6,NoTransfer!$C$63:$E$77,2))</f>
+        <v>33</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">IF(NoTransfer!J$6="","",VLOOKUP(NoTransfer!J$6,NoTransfer!$C$63:$E$77,2))</f>
+        <v>16</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">IF(NoTransfer!K$6="","",VLOOKUP(NoTransfer!K$6,NoTransfer!$C$63:$E$77,2))</f>
+        <v>14</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <f aca="false">IF(NoTransfer!L$6="","",VLOOKUP(NoTransfer!L$6,NoTransfer!$C$63:$E$77,2))</f>
+        <v>23</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <f aca="false">SUM(NoTransfer!H16:L16)</f>
+        <v>108</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <f aca="false">NoTransfer!M16/COUNTA(NoTransfer!H$6:L$6)</f>
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0.708898944193062</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <f aca="false">IF(NoTransfer!H$6="","",VLOOKUP(NoTransfer!H$6,NoTransfer!$C$78:$E$92,3))</f>
+        <v>0.230318257956449</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <f aca="false">IF(NoTransfer!I$6="","",VLOOKUP(NoTransfer!I$6,NoTransfer!$C$78:$E$92,3))</f>
+        <v>0.276793248945148</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <f aca="false">IF(NoTransfer!J$6="","",VLOOKUP(NoTransfer!J$6,NoTransfer!$C$78:$E$92,3))</f>
+        <v>0.216341689879294</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <f aca="false">IF(NoTransfer!K$6="","",VLOOKUP(NoTransfer!K$6,NoTransfer!$C$78:$E$92,3))</f>
+        <v>0.371694067190851</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <f aca="false">IF(NoTransfer!L$6="","",VLOOKUP(NoTransfer!L$6,NoTransfer!$C$78:$E$92,3))</f>
+        <v>0.187325256290774</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <f aca="false">SUM(NoTransfer!H17:L17)</f>
+        <v>1.28247252026252</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <f aca="false">NoTransfer!M17/COUNTA(NoTransfer!H$6:L$6)</f>
+        <v>0.256494504052503</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0.662027231467474</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <f aca="false">IF(NoTransfer!H$6="","",VLOOKUP(NoTransfer!H$6,NoTransfer!$C$78:$E$92,2))</f>
+        <v>26</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">IF(NoTransfer!I$6="","",VLOOKUP(NoTransfer!I$6,NoTransfer!$C$78:$E$92,2))</f>
+        <v>19</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">IF(NoTransfer!J$6="","",VLOOKUP(NoTransfer!J$6,NoTransfer!$C$78:$E$92,2))</f>
+        <v>23</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">IF(NoTransfer!K$6="","",VLOOKUP(NoTransfer!K$6,NoTransfer!$C$78:$E$92,2))</f>
+        <v>42</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <f aca="false">IF(NoTransfer!L$6="","",VLOOKUP(NoTransfer!L$6,NoTransfer!$C$78:$E$92,2))</f>
+        <v>24</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <f aca="false">SUM(NoTransfer!H18:L18)</f>
+        <v>134</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <f aca="false">NoTransfer!M18/COUNTA(NoTransfer!H$6:L$6)</f>
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0.672645739910314</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <f aca="false">IF(NoTransfer!H$6="","",VLOOKUP(NoTransfer!H$6,NoTransfer!$C$93:$E$107,3))</f>
+        <v>0.130850047755492</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <f aca="false">IF(NoTransfer!I$6="","",VLOOKUP(NoTransfer!I$6,NoTransfer!$C$93:$E$107,3))</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <f aca="false">IF(NoTransfer!J$6="","",VLOOKUP(NoTransfer!J$6,NoTransfer!$C$93:$E$107,3))</f>
+        <v>0.135728542914172</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <f aca="false">IF(NoTransfer!K$6="","",VLOOKUP(NoTransfer!K$6,NoTransfer!$C$93:$E$107,3))</f>
+        <v>0.160780669144981</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <f aca="false">IF(NoTransfer!L$6="","",VLOOKUP(NoTransfer!L$6,NoTransfer!$C$93:$E$107,3))</f>
+        <v>0.112426035502959</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <f aca="false">SUM(NoTransfer!H19:L19)</f>
+        <v>0.539785295317604</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <f aca="false">NoTransfer!M19/COUNTA(NoTransfer!H$6:L$6)</f>
+        <v>0.107957059063521</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0.688922610015174</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">IF(NoTransfer!H$6="","",VLOOKUP(NoTransfer!H$6,NoTransfer!$C$93:$E$107,2))</f>
+        <v>24</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">IF(NoTransfer!I$6="","",VLOOKUP(NoTransfer!I$6,NoTransfer!$C$93:$E$107,2))</f>
+        <v>4</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">IF(NoTransfer!J$6="","",VLOOKUP(NoTransfer!J$6,NoTransfer!$C$93:$E$107,2))</f>
+        <v>18</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">IF(NoTransfer!K$6="","",VLOOKUP(NoTransfer!K$6,NoTransfer!$C$93:$E$107,2))</f>
+        <v>22</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <f aca="false">IF(NoTransfer!L$6="","",VLOOKUP(NoTransfer!L$6,NoTransfer!$C$93:$E$107,2))</f>
+        <v>16</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <f aca="false">SUM(NoTransfer!H20:L20)</f>
+        <v>84</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <f aca="false">NoTransfer!M20/COUNTA(NoTransfer!H$6:L$6)</f>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0.689956331877729</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <f aca="false">IF(NoTransfer!H$6="","",VLOOKUP(NoTransfer!H$6,NoTransfer!$C$108:$E$122,3))</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <f aca="false">IF(NoTransfer!I$6="","",VLOOKUP(NoTransfer!I$6,NoTransfer!$C$108:$E$122,3))</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <f aca="false">IF(NoTransfer!J$6="","",VLOOKUP(NoTransfer!J$6,NoTransfer!$C$108:$E$122,3))</f>
+        <v>0.181503889369058</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <f aca="false">IF(NoTransfer!K$6="","",VLOOKUP(NoTransfer!K$6,NoTransfer!$C$108:$E$122,3))</f>
+        <v>0.11431316042267</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <f aca="false">IF(NoTransfer!L$6="","",VLOOKUP(NoTransfer!L$6,NoTransfer!$C$108:$E$122,3))</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <f aca="false">SUM(NoTransfer!H21:L21)</f>
+        <v>0.295817049791728</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <f aca="false">NoTransfer!M21/COUNTA(NoTransfer!H$6:L$6)</f>
+        <v>0.0591634099583456</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0.680693069306931</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <f aca="false">IF(NoTransfer!H$6="","",VLOOKUP(NoTransfer!H$6,NoTransfer!$C$108:$E$122,2))</f>
+        <v>3</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">IF(NoTransfer!I$6="","",VLOOKUP(NoTransfer!I$6,NoTransfer!$C$108:$E$122,2))</f>
+        <v>3</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <f aca="false">IF(NoTransfer!J$6="","",VLOOKUP(NoTransfer!J$6,NoTransfer!$C$108:$E$122,2))</f>
+        <v>20</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <f aca="false">IF(NoTransfer!K$6="","",VLOOKUP(NoTransfer!K$6,NoTransfer!$C$108:$E$122,2))</f>
+        <v>9</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <f aca="false">IF(NoTransfer!L$6="","",VLOOKUP(NoTransfer!L$6,NoTransfer!$C$108:$E$122,2))</f>
+        <v>6</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <f aca="false">SUM(NoTransfer!H22:L22)</f>
+        <v>41</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <f aca="false">NoTransfer!M22/COUNTA(NoTransfer!H$6:L$6)</f>
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0.671610797982794</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>0.682971568327729</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0.677478580171359</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>0.702421084891204</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>0.916710937961159</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>0.917573689474613</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>0.686684865028814</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>0.918040240991247</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>0.683704149128082</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>0.659485338120886</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>0.60142458965624</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>0.609625668449198</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>0.57227332457293</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>0.588669125041904</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>0.612015018773467</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>0.565107458912769</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>0.574429771908764</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>0.602634115001606</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>0.616541353383459</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>0.906364387767151</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>0.902496745947225</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>0.597336715282181</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>0.914106225014278</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>0.638284648850217</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>0.602839220864972</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>0.564937058642923</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>0.575615840349236</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>0.585024958402662</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>0.550150956055015</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>0.486173633440515</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>0.595078299776286</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>0.536506915406883</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>0.538251366120219</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>0.604592639194715</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>0.882779097387173</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>0.869921110386144</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>0.535479632063075</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>0.900765102203951</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>0.568746214415506</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>0.537146843390303</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>0.402943237561318</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>0.419700214132762</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>0.497789867392044</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>0.510089315249752</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>0.478093235191027</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>0.273721031919545</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>0.442251461988304</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>0.349090909090909</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>0.446545454545454</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>0.857311948866663</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>0.872727272727273</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>0.432586043574361</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>0.853832543804577</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>0.465360391882435</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>0.423770781747435</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>0.237037037037037</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>0.230318257956449</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>0.30692658647864</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>0.276793248945148</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>0.383960255500355</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>0.216239316239316</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>0.216341689879294</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>0.266320795503675</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>0.371694067190851</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>0.844963986302987</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>0.847051851851852</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>0.0868248359414437</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>0.829352517985612</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E91" s="1" t="n">
+        <v>0.187325256290774</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="E92" s="1" t="n">
+        <v>0.2928</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E93" s="1" t="n">
+        <v>0.233114627556928</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>0.130850047755492</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E95" s="1" t="n">
+        <v>0.305998481397115</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E97" s="1" t="n">
+        <v>0.0755162241887906</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E98" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E99" s="1" t="n">
+        <v>0.135728542914172</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E100" s="1" t="n">
+        <v>0.128878281622912</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>0.160780669144981</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E102" s="1" t="n">
+        <v>0.838299375809681</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E103" s="1" t="n">
+        <v>0.833696099770575</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E104" s="1" t="n">
+        <v>0.134738186462324</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E105" s="1" t="n">
+        <v>0.82090841056934</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E106" s="1" t="n">
+        <v>0.112426035502959</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E107" s="1" t="n">
+        <v>0.110800744878957</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E108" s="1" t="n">
+        <v>0.00249221183800623</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E109" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E110" s="1" t="n">
+        <v>0.253628724216959</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E111" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E112" s="1" t="n">
+        <v>0.083283759666865</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E113" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E114" s="1" t="n">
+        <v>0.181503889369058</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E115" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E116" s="1" t="n">
+        <v>0.11431316042267</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E117" s="1" t="n">
+        <v>0.824431951276645</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E118" s="1" t="n">
+        <v>0.828693790149893</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E119" s="1" t="n">
+        <v>0.0014194464158978</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E120" s="1" t="n">
+        <v>0.831273792093704</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E121" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E122" s="1" t="n">
+        <v>0.150110375275938</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N122"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.71840618495391</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.734545454545455</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.715259259259259</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.727596439169139</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="0" t="n">
+        <f aca="false">Master!C2</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">Master!D2</f>
+        <v>3</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <f aca="false">Master!E2</f>
+        <v>6</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">Master!F2</f>
+        <v>8</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <f aca="false">Master!G2</f>
+        <v>13</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.681723625557206</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <f aca="false">IF(Transfer!H$6="","",VLOOKUP(Transfer!H$6,Transfer!$C3:$E17,3))</f>
+        <v>0.734545454545455</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <f aca="false">IF(Transfer!I$6="","",VLOOKUP(Transfer!I$6,Transfer!$C3:$E17,3))</f>
+        <v>0.727596439169139</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <f aca="false">IF(Transfer!J$6="","",VLOOKUP(Transfer!J$6,Transfer!$C3:$E17,3))</f>
+        <v>0.735865988632964</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <f aca="false">IF(Transfer!K$6="","",VLOOKUP(Transfer!K$6,Transfer!$C3:$E17,3))</f>
+        <v>0.720311097816333</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <f aca="false">IF(Transfer!L$6="","",VLOOKUP(Transfer!L$6,Transfer!$C3:$E17,3))</f>
+        <v>0.725052129877867</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">SUM(Transfer!H7:L7)</f>
+        <v>3.64337111004176</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <f aca="false">Transfer!M7/COUNTA(Transfer!H$6:L$6)</f>
+        <v>0.728674222008352</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.711601550849985</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">IF(Transfer!H$6="","",VLOOKUP(Transfer!H$6,Transfer!$C3:$E17,2))</f>
+        <v>30</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">IF(Transfer!I$6="","",VLOOKUP(Transfer!I$6,Transfer!$C3:$E17,2))</f>
+        <v>25</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">IF(Transfer!J$6="","",VLOOKUP(Transfer!J$6,Transfer!$C3:$E17,2))</f>
+        <v>31</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">IF(Transfer!K$6="","",VLOOKUP(Transfer!K$6,Transfer!$C3:$E17,2))</f>
+        <v>24</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <f aca="false">IF(Transfer!L$6="","",VLOOKUP(Transfer!L$6,Transfer!$C3:$E17,2))</f>
+        <v>23</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <f aca="false">SUM(Transfer!H8:L8)</f>
+        <v>133</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <f aca="false">Transfer!M8/COUNTA(Transfer!H$6:L$6)</f>
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.735865988632964</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <f aca="false">IF(Transfer!H$6="","",VLOOKUP(Transfer!H$6,Transfer!$C18:$E32,3))</f>
+        <v>0.686257049569605</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <f aca="false">IF(Transfer!I$6="","",VLOOKUP(Transfer!I$6,Transfer!$C18:$E32,3))</f>
+        <v>0.690174804098855</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <f aca="false">IF(Transfer!J$6="","",VLOOKUP(Transfer!J$6,Transfer!$C18:$E32,3))</f>
+        <v>0.68702751738736</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <f aca="false">IF(Transfer!K$6="","",VLOOKUP(Transfer!K$6,Transfer!$C18:$E32,3))</f>
+        <v>0.693470374848851</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <f aca="false">IF(Transfer!L$6="","",VLOOKUP(Transfer!L$6,Transfer!$C18:$E32,3))</f>
+        <v>0.678088367899008</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <f aca="false">SUM(Transfer!H9:L9)</f>
+        <v>3.43501811380368</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <f aca="false">Transfer!M9/COUNTA(Transfer!H$6:L$6)</f>
+        <v>0.687003622760736</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.695342628300208</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">IF(Transfer!H$6="","",VLOOKUP(Transfer!H$6,Transfer!$C$18:$E$32,2))</f>
+        <v>20</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">IF(Transfer!I$6="","",VLOOKUP(Transfer!I$6,Transfer!$C$18:$E$32,2))</f>
+        <v>26</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <f aca="false">IF(Transfer!J$6="","",VLOOKUP(Transfer!J$6,Transfer!$C$18:$E$32,2))</f>
+        <v>21</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">IF(Transfer!K$6="","",VLOOKUP(Transfer!K$6,Transfer!$C$18:$E$32,2))</f>
+        <v>25</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <f aca="false">IF(Transfer!L$6="","",VLOOKUP(Transfer!L$6,Transfer!$C$18:$E$32,2))</f>
+        <v>14</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <f aca="false">SUM(Transfer!H10:L10)</f>
+        <v>106</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <f aca="false">Transfer!M10/COUNTA(Transfer!H$6:L$6)</f>
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.720311097816333</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <f aca="false">IF(Transfer!H$6="","",VLOOKUP(Transfer!H$6,Transfer!$C$33:$E$47,3))</f>
+        <v>0.596354944726621</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <f aca="false">IF(Transfer!I$6="","",VLOOKUP(Transfer!I$6,Transfer!$C$33:$E$47,3))</f>
+        <v>0.593353474320242</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <f aca="false">IF(Transfer!J$6="","",VLOOKUP(Transfer!J$6,Transfer!$C$33:$E$47,3))</f>
+        <v>0.576350364963504</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <f aca="false">IF(Transfer!K$6="","",VLOOKUP(Transfer!K$6,Transfer!$C$33:$E$47,3))</f>
+        <v>0.524539877300614</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <f aca="false">IF(Transfer!L$6="","",VLOOKUP(Transfer!L$6,Transfer!$C$33:$E$47,3))</f>
+        <v>0.632616487455197</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">SUM(Transfer!H11:L11)</f>
+        <v>2.92321514876618</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <f aca="false">Transfer!M11/COUNTA(Transfer!H$6:L$6)</f>
+        <v>0.584643029753235</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.925821264570823</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">IF(Transfer!H$6="","",VLOOKUP(Transfer!H$6,Transfer!$C$33:$E$47,2))</f>
+        <v>11</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">IF(Transfer!I$6="","",VLOOKUP(Transfer!I$6,Transfer!$C$33:$E$47,2))</f>
+        <v>12</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">IF(Transfer!J$6="","",VLOOKUP(Transfer!J$6,Transfer!$C$33:$E$47,2))</f>
+        <v>10</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">IF(Transfer!K$6="","",VLOOKUP(Transfer!K$6,Transfer!$C$33:$E$47,2))</f>
+        <v>6</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <f aca="false">IF(Transfer!L$6="","",VLOOKUP(Transfer!L$6,Transfer!$C$33:$E$47,2))</f>
+        <v>17</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <f aca="false">SUM(Transfer!H12:L12)</f>
+        <v>56</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <f aca="false">Transfer!M12/COUNTA(Transfer!H$6:L$6)</f>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.924879312374897</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <f aca="false">IF(Transfer!H$6="","",VLOOKUP(Transfer!H$6,Transfer!$C$48:$E$62,3))</f>
+        <v>0.568283249033026</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <f aca="false">IF(Transfer!I$6="","",VLOOKUP(Transfer!I$6,Transfer!$C$48:$E$62,3))</f>
+        <v>0.569996868149076</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <f aca="false">IF(Transfer!J$6="","",VLOOKUP(Transfer!J$6,Transfer!$C$48:$E$62,3))</f>
+        <v>0.502274795268426</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <f aca="false">IF(Transfer!K$6="","",VLOOKUP(Transfer!K$6,Transfer!$C$48:$E$62,3))</f>
+        <v>0.594955940443634</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <f aca="false">IF(Transfer!L$6="","",VLOOKUP(Transfer!L$6,Transfer!$C$48:$E$62,3))</f>
+        <v>0.59592078037245</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <f aca="false">SUM(Transfer!H13:L13)</f>
+        <v>2.83143163326661</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <f aca="false">Transfer!M13/COUNTA(Transfer!H$6:L$6)</f>
+        <v>0.566286326653322</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.718423409973126</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <f aca="false">IF(Transfer!H$6="","",VLOOKUP(Transfer!H$6,Transfer!$C$48:$E$62,2))</f>
+        <v>22</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">IF(Transfer!I$6="","",VLOOKUP(Transfer!I$6,Transfer!$C$48:$E$62,2))</f>
+        <v>21</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">IF(Transfer!J$6="","",VLOOKUP(Transfer!J$6,Transfer!$C$48:$E$62,2))</f>
+        <v>19</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">IF(Transfer!K$6="","",VLOOKUP(Transfer!K$6,Transfer!$C$48:$E$62,2))</f>
+        <v>18</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <f aca="false">IF(Transfer!L$6="","",VLOOKUP(Transfer!L$6,Transfer!$C$48:$E$62,2))</f>
+        <v>24</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <f aca="false">SUM(Transfer!H14:L14)</f>
+        <v>104</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <f aca="false">Transfer!M14/COUNTA(Transfer!H$6:L$6)</f>
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.935322818563486</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <f aca="false">IF(Transfer!H$6="","",VLOOKUP(Transfer!H$6,Transfer!$C$63:$E$77,3))</f>
+        <v>0.354132636393335</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <f aca="false">IF(Transfer!I$6="","",VLOOKUP(Transfer!I$6,Transfer!$C$63:$E$77,3))</f>
+        <v>0.505878614553543</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <f aca="false">IF(Transfer!J$6="","",VLOOKUP(Transfer!J$6,Transfer!$C$63:$E$77,3))</f>
+        <v>0.471670127558588</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <f aca="false">IF(Transfer!K$6="","",VLOOKUP(Transfer!K$6,Transfer!$C$63:$E$77,3))</f>
+        <v>0.541089566020314</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <f aca="false">IF(Transfer!L$6="","",VLOOKUP(Transfer!L$6,Transfer!$C$63:$E$77,3))</f>
+        <v>0.515572001233426</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <f aca="false">SUM(Transfer!H15:L15)</f>
+        <v>2.38834294575921</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <f aca="false">Transfer!M15/COUNTA(Transfer!H$6:L$6)</f>
+        <v>0.477668589151841</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.725052129877867</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <f aca="false">IF(Transfer!H$6="","",VLOOKUP(Transfer!H$6,Transfer!$C$63:$E$77,2))</f>
+        <v>9</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">IF(Transfer!I$6="","",VLOOKUP(Transfer!I$6,Transfer!$C$63:$E$77,2))</f>
+        <v>12</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">IF(Transfer!J$6="","",VLOOKUP(Transfer!J$6,Transfer!$C$63:$E$77,2))</f>
+        <v>21</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">IF(Transfer!K$6="","",VLOOKUP(Transfer!K$6,Transfer!$C$63:$E$77,2))</f>
+        <v>17</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <f aca="false">IF(Transfer!L$6="","",VLOOKUP(Transfer!L$6,Transfer!$C$63:$E$77,2))</f>
+        <v>16</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <f aca="false">SUM(Transfer!H16:L16)</f>
+        <v>75</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <f aca="false">Transfer!M16/COUNTA(Transfer!H$6:L$6)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.698955916473318</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <f aca="false">IF(Transfer!H$6="","",VLOOKUP(Transfer!H$6,Transfer!$C$78:$E$92,3))</f>
+        <v>0.320076360165447</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <f aca="false">IF(Transfer!I$6="","",VLOOKUP(Transfer!I$6,Transfer!$C$78:$E$92,3))</f>
+        <v>0.400481058328322</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <f aca="false">IF(Transfer!J$6="","",VLOOKUP(Transfer!J$6,Transfer!$C$78:$E$92,3))</f>
+        <v>0.280805687203791</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <f aca="false">IF(Transfer!K$6="","",VLOOKUP(Transfer!K$6,Transfer!$C$78:$E$92,3))</f>
+        <v>0.377622377622378</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <f aca="false">IF(Transfer!L$6="","",VLOOKUP(Transfer!L$6,Transfer!$C$78:$E$92,3))</f>
+        <v>0.327653997378768</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <f aca="false">SUM(Transfer!H17:L17)</f>
+        <v>1.70663948069871</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <f aca="false">Transfer!M17/COUNTA(Transfer!H$6:L$6)</f>
+        <v>0.341327896139741</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.634677656755961</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <f aca="false">IF(Transfer!H$6="","",VLOOKUP(Transfer!H$6,Transfer!$C$78:$E$92,2))</f>
+        <v>19</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">IF(Transfer!I$6="","",VLOOKUP(Transfer!I$6,Transfer!$C$78:$E$92,2))</f>
+        <v>22</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">IF(Transfer!J$6="","",VLOOKUP(Transfer!J$6,Transfer!$C$78:$E$92,2))</f>
+        <v>16</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">IF(Transfer!K$6="","",VLOOKUP(Transfer!K$6,Transfer!$C$78:$E$92,2))</f>
+        <v>18</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <f aca="false">IF(Transfer!L$6="","",VLOOKUP(Transfer!L$6,Transfer!$C$78:$E$92,2))</f>
+        <v>12</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <f aca="false">SUM(Transfer!H18:L18)</f>
+        <v>87</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <f aca="false">Transfer!M18/COUNTA(Transfer!H$6:L$6)</f>
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.686257049569605</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <f aca="false">IF(Transfer!H$6="","",VLOOKUP(Transfer!H$6,Transfer!$C$93:$E$107,3))</f>
+        <v>0.253538848694558</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <f aca="false">IF(Transfer!I$6="","",VLOOKUP(Transfer!I$6,Transfer!$C$93:$E$107,3))</f>
+        <v>0.0842433697347894</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <f aca="false">IF(Transfer!J$6="","",VLOOKUP(Transfer!J$6,Transfer!$C$93:$E$107,3))</f>
+        <v>0.309653916211293</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <f aca="false">IF(Transfer!K$6="","",VLOOKUP(Transfer!K$6,Transfer!$C$93:$E$107,3))</f>
+        <v>0.311841289522629</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <f aca="false">IF(Transfer!L$6="","",VLOOKUP(Transfer!L$6,Transfer!$C$93:$E$107,3))</f>
+        <v>0.321120047661603</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <f aca="false">SUM(Transfer!H19:L19)</f>
+        <v>1.28039747182487</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <f aca="false">Transfer!M19/COUNTA(Transfer!H$6:L$6)</f>
+        <v>0.256079494364974</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.695154980439362</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">IF(Transfer!H$6="","",VLOOKUP(Transfer!H$6,Transfer!$C$93:$E$107,2))</f>
+        <v>28</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">IF(Transfer!I$6="","",VLOOKUP(Transfer!I$6,Transfer!$C$93:$E$107,2))</f>
+        <v>4</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">IF(Transfer!J$6="","",VLOOKUP(Transfer!J$6,Transfer!$C$93:$E$107,2))</f>
+        <v>14</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">IF(Transfer!K$6="","",VLOOKUP(Transfer!K$6,Transfer!$C$93:$E$107,2))</f>
+        <v>18</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <f aca="false">IF(Transfer!L$6="","",VLOOKUP(Transfer!L$6,Transfer!$C$93:$E$107,2))</f>
+        <v>20</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <f aca="false">SUM(Transfer!H20:L20)</f>
+        <v>84</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <f aca="false">Transfer!M20/COUNTA(Transfer!H$6:L$6)</f>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.690174804098855</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <f aca="false">IF(Transfer!H$6="","",VLOOKUP(Transfer!H$6,Transfer!$C$108:$E$122,3))</f>
+        <v>0.17248322147651</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <f aca="false">IF(Transfer!I$6="","",VLOOKUP(Transfer!I$6,Transfer!$C$108:$E$122,3))</f>
+        <v>0.147283995625228</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <f aca="false">IF(Transfer!J$6="","",VLOOKUP(Transfer!J$6,Transfer!$C$108:$E$122,3))</f>
+        <v>0.302150237363865</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <f aca="false">IF(Transfer!K$6="","",VLOOKUP(Transfer!K$6,Transfer!$C$108:$E$122,3))</f>
+        <v>0.269824183710083</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <f aca="false">IF(Transfer!L$6="","",VLOOKUP(Transfer!L$6,Transfer!$C$108:$E$122,3))</f>
+        <v>0.181575433911882</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <f aca="false">SUM(Transfer!H21:L21)</f>
+        <v>1.07331707208757</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <f aca="false">Transfer!M21/COUNTA(Transfer!H$6:L$6)</f>
+        <v>0.214663414417514</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0.689802130898021</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <f aca="false">IF(Transfer!H$6="","",VLOOKUP(Transfer!H$6,Transfer!$C$108:$E$122,2))</f>
+        <v>7</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">IF(Transfer!I$6="","",VLOOKUP(Transfer!I$6,Transfer!$C$108:$E$122,2))</f>
+        <v>6</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <f aca="false">IF(Transfer!J$6="","",VLOOKUP(Transfer!J$6,Transfer!$C$108:$E$122,2))</f>
+        <v>11</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <f aca="false">IF(Transfer!K$6="","",VLOOKUP(Transfer!K$6,Transfer!$C$108:$E$122,2))</f>
+        <v>7</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <f aca="false">IF(Transfer!L$6="","",VLOOKUP(Transfer!L$6,Transfer!$C$108:$E$122,2))</f>
+        <v>6</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <f aca="false">SUM(Transfer!H22:L22)</f>
+        <v>37</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <f aca="false">Transfer!M22/COUNTA(Transfer!H$6:L$6)</f>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0.680712166172107</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.68702751738736</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0.675815797499237</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0.693470374848851</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0.922351276457756</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0.924300441826215</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0.688642493257417</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0.921373829122907</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0.678088367899008</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0.67995240928019</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0.565734681737061</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0.596354944726621</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0.568835098335855</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0.593353474320242</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0.608381067229424</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0.600060368246302</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0.576350364963504</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0.640048765620238</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0.524539877300614</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0.909133848969711</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0.909198392054859</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0.582571602681292</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0.916215754399954</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0.632616487455197</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0.594316807738815</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0.504327066547299</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0.568283249033026</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0.575517661388551</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0.569996868149076</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>0.561116166211708</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>0.586102719033233</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>0.502274795268426</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>0.58525921299188</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>0.594955940443634</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>0.884373889349603</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>0.887793873189266</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>0.554945054945055</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>0.899657534246575</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>0.59592078037245</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>0.568022011617242</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>0.401801801801802</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>0.354132636393335</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>0.474470734744707</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>0.505878614553543</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>0.511153601019758</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>0.512179487179487</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>0.471670127558588</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>0.446687697160883</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>0.541089566020314</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>0.848873463144891</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>0.864319220948875</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>0.329518072289157</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>0.881643336747468</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>0.515572001233426</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>0.351728320194057</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>0.31983198319832</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>0.320076360165447</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>0.372260385999346</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>0.400481058328322</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>0.364860728497092</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>0.335499845249149</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>0.280805687203791</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>0.32034632034632</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>0.377622377622378</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>0.84328138782711</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>0.836210476359969</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>0.221769499417928</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>0.845605973578403</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>0.327653997378768</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>0.35648</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>0.273152478952292</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>0.253538848694558</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>0.293087557603687</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>0.0842433697347894</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>0.325321040500494</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>0.242351529694061</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>0.309653916211293</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>0.256591892955529</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>0.311841289522629</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>0.828047136073166</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>0.82846236430872</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>0.173913043478261</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>0.814882760992948</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>0.321120047661603</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>0.281084656084656</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>0.267499178442327</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>0.17248322147651</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>0.283030682529743</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>0.147283995625228</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>0.241170855870188</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>0.149722735674677</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>0.302150237363865</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>0.238730616660656</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>0.269824183710083</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>0.815130465238457</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>0.826587852102057</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>0.177566926465605</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>0.831370262390671</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>0.181575433911882</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>0.199220134704006</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:R32"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="I6" s="0" t="n">
+        <f aca="false">Master!B7</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <f aca="false">Master!C7</f>
+        <v>0.551306758724964</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <f aca="false">Master!D7</f>
+        <v>0.708984167860454</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <f aca="false">Master!E7</f>
+        <v>0.728674222008352</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <f aca="false">Master!C8</f>
+        <v>6</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <f aca="false">Master!D8</f>
+        <v>23</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <f aca="false">Master!E8</f>
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <f aca="false">Default!N7</f>
+        <v>0.551306758724964</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <f aca="false">NoTransfer!N7</f>
+        <v>0.708984167860454</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <f aca="false">Transfer!N7</f>
+        <v>0.728674222008352</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">Master!B9</f>
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <f aca="false">Master!C9</f>
+        <v>0.662492679723025</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <f aca="false">Master!D9</f>
+        <v>0.686339774827012</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <f aca="false">Master!E9</f>
+        <v>0.687003622760736</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <f aca="false">Master!C10</f>
+        <v>11.4</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <f aca="false">Master!D10</f>
+        <v>25</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <f aca="false">Master!E10</f>
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="n">
+        <f aca="false">Default!N8</f>
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">NoTransfer!N8</f>
+        <v>23</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <f aca="false">Transfer!N8</f>
+        <v>26.6</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">Master!B11</f>
+        <v>0.2</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <f aca="false">Master!C11</f>
+        <v>0.611554622070844</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <f aca="false">Master!D11</f>
+        <v>0.605510113526708</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <f aca="false">Master!E11</f>
+        <v>0.584643029753235</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <f aca="false">Master!C12</f>
+        <v>12.6</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <f aca="false">Master!D12</f>
+        <v>17.8</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <f aca="false">Master!E12</f>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <f aca="false">Default!N9</f>
+        <v>0.662492679723025</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <f aca="false">NoTransfer!N9</f>
+        <v>0.686339774827012</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <f aca="false">Transfer!N9</f>
+        <v>0.687003622760736</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">Master!B13</f>
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <f aca="false">Master!C13</f>
+        <v>0.533689432860326</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <f aca="false">Master!D13</f>
+        <v>0.567122513084271</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <f aca="false">Master!E13</f>
+        <v>0.566286326653322</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <f aca="false">Master!C14</f>
+        <v>13.4</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <f aca="false">Master!D14</f>
+        <v>24.2</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <f aca="false">Master!E14</f>
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="n">
+        <f aca="false">Default!N10</f>
+        <v>11.4</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">NoTransfer!N10</f>
+        <v>25</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <f aca="false">Transfer!N10</f>
+        <v>21.2</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">Master!B15</f>
+        <v>0.05</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <f aca="false">Master!C15</f>
+        <v>0.423839358319076</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <f aca="false">Master!D15</f>
+        <v>0.456789367559741</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <f aca="false">Master!E15</f>
+        <v>0.477668589151841</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <f aca="false">Master!C16</f>
+        <v>13</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <f aca="false">Master!D16</f>
+        <v>21.6</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <f aca="false">Master!E16</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <f aca="false">Default!N11</f>
+        <v>0.611554622070844</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <f aca="false">NoTransfer!N11</f>
+        <v>0.605510113526708</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <f aca="false">Transfer!N11</f>
+        <v>0.584643029753235</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">Master!B17</f>
+        <v>0.02</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <f aca="false">Master!C17</f>
+        <v>0.062798073227845</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <f aca="false">Master!D17</f>
+        <v>0.256494504052503</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <f aca="false">Master!E17</f>
+        <v>0.341327896139741</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <f aca="false">Master!C18</f>
+        <v>2</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <f aca="false">Master!D18</f>
+        <v>26.8</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <f aca="false">Master!E18</f>
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="n">
+        <f aca="false">Default!N12</f>
+        <v>12.6</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">NoTransfer!N12</f>
+        <v>17.8</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <f aca="false">Transfer!N12</f>
+        <v>11.2</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">Master!B19</f>
+        <v>0.01</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <f aca="false">Master!C19</f>
+        <v>0.0784191615478719</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <f aca="false">Master!D19</f>
+        <v>0.107957059063521</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <f aca="false">Master!E19</f>
+        <v>0.256079494364974</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <f aca="false">Master!C20</f>
+        <v>2</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <f aca="false">Master!D20</f>
+        <v>16.8</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <f aca="false">Master!E20</f>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <f aca="false">Default!N13</f>
+        <v>0.533689432860326</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <f aca="false">NoTransfer!N13</f>
+        <v>0.567122513084271</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <f aca="false">Transfer!N13</f>
+        <v>0.566286326653322</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">Master!B21</f>
+        <v>0.005</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <f aca="false">Master!C21</f>
+        <v>0.0453067816258296</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <f aca="false">Master!D21</f>
+        <v>0.0591634099583456</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <f aca="false">Master!E21</f>
+        <v>0.214663414417514</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <f aca="false">Master!C22</f>
+        <v>2</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <f aca="false">Master!D22</f>
+        <v>8.2</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <f aca="false">Master!E22</f>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="n">
+        <f aca="false">Default!N14</f>
+        <v>13.4</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <f aca="false">NoTransfer!N14</f>
+        <v>24.2</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <f aca="false">Transfer!N14</f>
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <f aca="false">Default!N15</f>
+        <v>0.423839358319076</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <f aca="false">NoTransfer!N15</f>
+        <v>0.456789367559741</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <f aca="false">Transfer!N15</f>
+        <v>0.477668589151841</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="n">
+        <f aca="false">Default!N16</f>
+        <v>13</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <f aca="false">NoTransfer!N16</f>
+        <v>21.6</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <f aca="false">Transfer!N16</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <f aca="false">Default!N17</f>
+        <v>0.062798073227845</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <f aca="false">NoTransfer!N17</f>
+        <v>0.256494504052503</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <f aca="false">Transfer!N17</f>
+        <v>0.341327896139741</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="n">
+        <f aca="false">Default!N18</f>
+        <v>2</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <f aca="false">NoTransfer!N18</f>
+        <v>26.8</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <f aca="false">Transfer!N18</f>
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <f aca="false">Default!N19</f>
+        <v>0.0784191615478719</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <f aca="false">NoTransfer!N19</f>
+        <v>0.107957059063521</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <f aca="false">Transfer!N19</f>
+        <v>0.256079494364974</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="n">
+        <f aca="false">Default!N20</f>
+        <v>2</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">NoTransfer!N20</f>
+        <v>16.8</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <f aca="false">Transfer!N20</f>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <f aca="false">Default!N21</f>
+        <v>0.0453067816258296</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <f aca="false">NoTransfer!N21</f>
+        <v>0.0591634099583456</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <f aca="false">Transfer!N21</f>
+        <v>0.214663414417514</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="n">
+        <f aca="false">Default!N22</f>
+        <v>2</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <f aca="false">NoTransfer!N22</f>
+        <v>8.2</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <f aca="false">Transfer!N22</f>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:G11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>9.33333333333333</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <f aca="false">Trainable!D3*Trainable!E3</f>
+        <v>329.466666666667</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.724626230445828</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">Trainable!D4*Trainable!E4</f>
+        <v>455</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.780007195716839</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>18.3333333333333</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">Trainable!D5*Trainable!E5</f>
+        <v>495</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.711604415921161</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">Trainable!D6*Trainable!E6</f>
+        <v>216</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.643414022838316</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/welldone_ner/Partials.xlsx
+++ b/welldone_ner/Partials.xlsx
@@ -285,7 +285,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -631,11 +631,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="51347718"/>
-        <c:axId val="91376692"/>
+        <c:axId val="68928426"/>
+        <c:axId val="16436500"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51347718"/>
+        <c:axId val="68928426"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -670,14 +670,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91376692"/>
+        <c:crossAx val="16436500"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91376692"/>
+        <c:axId val="16436500"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -721,7 +721,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51347718"/>
+        <c:crossAx val="68928426"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -758,7 +758,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1104,11 +1104,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="23756671"/>
-        <c:axId val="84878775"/>
+        <c:axId val="83699842"/>
+        <c:axId val="3496205"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="23756671"/>
+        <c:axId val="83699842"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,14 +1143,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84878775"/>
+        <c:crossAx val="3496205"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84878775"/>
+        <c:axId val="3496205"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,7 +1194,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23756671"/>
+        <c:crossAx val="83699842"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1303,8 +1303,8 @@
   </sheetPr>
   <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E85" activeCellId="0" sqref="E85"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5803,7 +5803,7 @@
   <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5843,7 +5843,7 @@
       <c r="D3" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>0.71840618495391</v>
       </c>
       <c r="G3" s="0" t="s">
@@ -5860,7 +5860,7 @@
       <c r="D4" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>0.734545454545455</v>
       </c>
     </row>
@@ -5874,7 +5874,7 @@
       <c r="D5" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>0.715259259259259</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -5904,7 +5904,7 @@
       <c r="D6" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>0.727596439169139</v>
       </c>
       <c r="G6" s="2"/>
@@ -5943,7 +5943,7 @@
       <c r="D7" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>0.681723625557206</v>
       </c>
       <c r="G7" s="0" t="n">
@@ -5988,7 +5988,7 @@
       <c r="D8" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>0.711601550849985</v>
       </c>
       <c r="H8" s="0" t="n">
@@ -6030,7 +6030,7 @@
       <c r="D9" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>0.735865988632964</v>
       </c>
       <c r="G9" s="0" t="n">
@@ -6075,7 +6075,7 @@
       <c r="D10" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>0.695342628300208</v>
       </c>
       <c r="H10" s="0" t="n">
@@ -6117,7 +6117,7 @@
       <c r="D11" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>0.720311097816333</v>
       </c>
       <c r="G11" s="0" t="n">
@@ -6162,7 +6162,7 @@
       <c r="D12" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>0.925821264570823</v>
       </c>
       <c r="H12" s="0" t="n">
@@ -6204,7 +6204,7 @@
       <c r="D13" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>0.924879312374897</v>
       </c>
       <c r="G13" s="0" t="n">
@@ -6249,7 +6249,7 @@
       <c r="D14" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>0.718423409973126</v>
       </c>
       <c r="H14" s="0" t="n">
@@ -6291,7 +6291,7 @@
       <c r="D15" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>0.935322818563486</v>
       </c>
       <c r="G15" s="0" t="n">
@@ -6336,7 +6336,7 @@
       <c r="D16" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>0.725052129877867</v>
       </c>
       <c r="H16" s="0" t="n">
@@ -6378,7 +6378,7 @@
       <c r="D17" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>0.698955916473318</v>
       </c>
       <c r="G17" s="0" t="n">
@@ -6423,7 +6423,7 @@
       <c r="D18" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>0.634677656755961</v>
       </c>
       <c r="H18" s="0" t="n">
@@ -6465,7 +6465,7 @@
       <c r="D19" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>0.686257049569605</v>
       </c>
       <c r="G19" s="0" t="n">
@@ -6510,7 +6510,7 @@
       <c r="D20" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>0.695154980439362</v>
       </c>
       <c r="H20" s="0" t="n">
@@ -6552,7 +6552,7 @@
       <c r="D21" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>0.690174804098855</v>
       </c>
       <c r="G21" s="0" t="n">
@@ -6597,7 +6597,7 @@
       <c r="D22" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>0.689802130898021</v>
       </c>
       <c r="H22" s="0" t="n">
@@ -6639,7 +6639,7 @@
       <c r="D23" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>0.680712166172107</v>
       </c>
     </row>
@@ -6653,7 +6653,7 @@
       <c r="D24" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>0.68702751738736</v>
       </c>
     </row>
@@ -6667,7 +6667,7 @@
       <c r="D25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>0.675815797499237</v>
       </c>
     </row>
@@ -6681,7 +6681,7 @@
       <c r="D26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>0.693470374848851</v>
       </c>
     </row>
@@ -6695,7 +6695,7 @@
       <c r="D27" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>0.922351276457756</v>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       <c r="D28" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>0.924300441826215</v>
       </c>
     </row>
@@ -6723,7 +6723,7 @@
       <c r="D29" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>0.688642493257417</v>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       <c r="D30" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>0.921373829122907</v>
       </c>
     </row>
@@ -6751,7 +6751,7 @@
       <c r="D31" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>0.678088367899008</v>
       </c>
     </row>
@@ -6765,7 +6765,7 @@
       <c r="D32" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>0.67995240928019</v>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
       <c r="D33" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>0.565734681737061</v>
       </c>
     </row>
@@ -6793,7 +6793,7 @@
       <c r="D34" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>0.596354944726621</v>
       </c>
     </row>
@@ -6807,7 +6807,7 @@
       <c r="D35" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>0.568835098335855</v>
       </c>
     </row>
@@ -6821,7 +6821,7 @@
       <c r="D36" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="1" t="n">
         <v>0.593353474320242</v>
       </c>
     </row>
@@ -6835,7 +6835,7 @@
       <c r="D37" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <v>0.608381067229424</v>
       </c>
     </row>
@@ -6849,7 +6849,7 @@
       <c r="D38" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="1" t="n">
         <v>0.600060368246302</v>
       </c>
     </row>
@@ -6863,7 +6863,7 @@
       <c r="D39" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="1" t="n">
         <v>0.576350364963504</v>
       </c>
     </row>
@@ -6877,7 +6877,7 @@
       <c r="D40" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="1" t="n">
         <v>0.640048765620238</v>
       </c>
     </row>
@@ -6891,7 +6891,7 @@
       <c r="D41" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" s="1" t="n">
         <v>0.524539877300614</v>
       </c>
     </row>
@@ -6905,7 +6905,7 @@
       <c r="D42" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" s="1" t="n">
         <v>0.909133848969711</v>
       </c>
     </row>
@@ -6919,7 +6919,7 @@
       <c r="D43" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="1" t="n">
         <v>0.909198392054859</v>
       </c>
     </row>
@@ -6933,7 +6933,7 @@
       <c r="D44" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="1" t="n">
         <v>0.582571602681292</v>
       </c>
     </row>
@@ -6947,7 +6947,7 @@
       <c r="D45" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="1" t="n">
         <v>0.916215754399954</v>
       </c>
     </row>
@@ -6961,7 +6961,7 @@
       <c r="D46" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="1" t="n">
         <v>0.632616487455197</v>
       </c>
     </row>
@@ -6975,7 +6975,7 @@
       <c r="D47" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47" s="1" t="n">
         <v>0.594316807738815</v>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       <c r="D48" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" s="1" t="n">
         <v>0.504327066547299</v>
       </c>
     </row>
@@ -7003,7 +7003,7 @@
       <c r="D49" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" s="1" t="n">
         <v>0.568283249033026</v>
       </c>
     </row>
@@ -7017,7 +7017,7 @@
       <c r="D50" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50" s="1" t="n">
         <v>0.575517661388551</v>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
       <c r="D51" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51" s="1" t="n">
         <v>0.569996868149076</v>
       </c>
     </row>
@@ -7045,7 +7045,7 @@
       <c r="D52" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52" s="1" t="n">
         <v>0.561116166211708</v>
       </c>
     </row>
@@ -7059,7 +7059,7 @@
       <c r="D53" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53" s="1" t="n">
         <v>0.586102719033233</v>
       </c>
     </row>
@@ -7073,7 +7073,7 @@
       <c r="D54" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54" s="1" t="n">
         <v>0.502274795268426</v>
       </c>
     </row>
@@ -7087,7 +7087,7 @@
       <c r="D55" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55" s="1" t="n">
         <v>0.58525921299188</v>
       </c>
     </row>
@@ -7101,7 +7101,7 @@
       <c r="D56" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56" s="1" t="n">
         <v>0.594955940443634</v>
       </c>
     </row>
@@ -7115,7 +7115,7 @@
       <c r="D57" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57" s="1" t="n">
         <v>0.884373889349603</v>
       </c>
     </row>
@@ -7129,7 +7129,7 @@
       <c r="D58" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58" s="1" t="n">
         <v>0.887793873189266</v>
       </c>
     </row>
@@ -7143,7 +7143,7 @@
       <c r="D59" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59" s="1" t="n">
         <v>0.554945054945055</v>
       </c>
     </row>
@@ -7157,7 +7157,7 @@
       <c r="D60" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60" s="1" t="n">
         <v>0.899657534246575</v>
       </c>
     </row>
@@ -7171,7 +7171,7 @@
       <c r="D61" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61" s="1" t="n">
         <v>0.59592078037245</v>
       </c>
     </row>
@@ -7185,7 +7185,7 @@
       <c r="D62" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62" s="1" t="n">
         <v>0.568022011617242</v>
       </c>
     </row>
@@ -7199,7 +7199,7 @@
       <c r="D63" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63" s="1" t="n">
         <v>0.401801801801802</v>
       </c>
     </row>
@@ -7213,7 +7213,7 @@
       <c r="D64" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64" s="1" t="n">
         <v>0.354132636393335</v>
       </c>
     </row>
@@ -7227,7 +7227,7 @@
       <c r="D65" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65" s="1" t="n">
         <v>0.474470734744707</v>
       </c>
     </row>
@@ -7241,7 +7241,7 @@
       <c r="D66" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66" s="1" t="n">
         <v>0.505878614553543</v>
       </c>
     </row>
@@ -7255,7 +7255,7 @@
       <c r="D67" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67" s="1" t="n">
         <v>0.511153601019758</v>
       </c>
     </row>
@@ -7269,7 +7269,7 @@
       <c r="D68" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68" s="1" t="n">
         <v>0.512179487179487</v>
       </c>
     </row>
@@ -7283,7 +7283,7 @@
       <c r="D69" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69" s="1" t="n">
         <v>0.471670127558588</v>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       <c r="D70" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70" s="1" t="n">
         <v>0.446687697160883</v>
       </c>
     </row>
@@ -7311,7 +7311,7 @@
       <c r="D71" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71" s="1" t="n">
         <v>0.541089566020314</v>
       </c>
     </row>
@@ -7325,7 +7325,7 @@
       <c r="D72" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E72" s="1" t="n">
         <v>0.848873463144891</v>
       </c>
     </row>
@@ -7339,7 +7339,7 @@
       <c r="D73" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73" s="1" t="n">
         <v>0.864319220948875</v>
       </c>
     </row>
@@ -7353,7 +7353,7 @@
       <c r="D74" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E74" s="0" t="n">
+      <c r="E74" s="1" t="n">
         <v>0.329518072289157</v>
       </c>
     </row>
@@ -7367,7 +7367,7 @@
       <c r="D75" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="E75" s="1" t="n">
         <v>0.881643336747468</v>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       <c r="D76" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76" s="1" t="n">
         <v>0.515572001233426</v>
       </c>
     </row>
@@ -7395,7 +7395,7 @@
       <c r="D77" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="E77" s="1" t="n">
         <v>0.351728320194057</v>
       </c>
     </row>
@@ -7409,7 +7409,7 @@
       <c r="D78" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78" s="1" t="n">
         <v>0.31983198319832</v>
       </c>
     </row>
@@ -7423,7 +7423,7 @@
       <c r="D79" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79" s="1" t="n">
         <v>0.320076360165447</v>
       </c>
     </row>
@@ -7437,7 +7437,7 @@
       <c r="D80" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80" s="1" t="n">
         <v>0.372260385999346</v>
       </c>
     </row>
@@ -7451,7 +7451,7 @@
       <c r="D81" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81" s="1" t="n">
         <v>0.400481058328322</v>
       </c>
     </row>
@@ -7465,7 +7465,7 @@
       <c r="D82" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E82" s="0" t="n">
+      <c r="E82" s="1" t="n">
         <v>0.364860728497092</v>
       </c>
     </row>
@@ -7479,7 +7479,7 @@
       <c r="D83" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83" s="1" t="n">
         <v>0.335499845249149</v>
       </c>
     </row>
@@ -7493,7 +7493,7 @@
       <c r="D84" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84" s="1" t="n">
         <v>0.280805687203791</v>
       </c>
     </row>
@@ -7507,7 +7507,7 @@
       <c r="D85" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85" s="1" t="n">
         <v>0.32034632034632</v>
       </c>
     </row>
@@ -7521,7 +7521,7 @@
       <c r="D86" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E86" s="0" t="n">
+      <c r="E86" s="1" t="n">
         <v>0.377622377622378</v>
       </c>
     </row>
@@ -7535,7 +7535,7 @@
       <c r="D87" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="E87" s="0" t="n">
+      <c r="E87" s="1" t="n">
         <v>0.84328138782711</v>
       </c>
     </row>
@@ -7549,7 +7549,7 @@
       <c r="D88" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E88" s="0" t="n">
+      <c r="E88" s="1" t="n">
         <v>0.836210476359969</v>
       </c>
     </row>
@@ -7563,7 +7563,7 @@
       <c r="D89" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E89" s="0" t="n">
+      <c r="E89" s="1" t="n">
         <v>0.221769499417928</v>
       </c>
     </row>
@@ -7577,7 +7577,7 @@
       <c r="D90" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E90" s="0" t="n">
+      <c r="E90" s="1" t="n">
         <v>0.845605973578403</v>
       </c>
     </row>
@@ -7591,7 +7591,7 @@
       <c r="D91" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E91" s="0" t="n">
+      <c r="E91" s="1" t="n">
         <v>0.327653997378768</v>
       </c>
     </row>
@@ -7605,7 +7605,7 @@
       <c r="D92" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E92" s="0" t="n">
+      <c r="E92" s="1" t="n">
         <v>0.35648</v>
       </c>
     </row>
@@ -7619,7 +7619,7 @@
       <c r="D93" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E93" s="0" t="n">
+      <c r="E93" s="1" t="n">
         <v>0.273152478952292</v>
       </c>
     </row>
@@ -7633,7 +7633,7 @@
       <c r="D94" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="E94" s="0" t="n">
+      <c r="E94" s="1" t="n">
         <v>0.253538848694558</v>
       </c>
     </row>
@@ -7647,7 +7647,7 @@
       <c r="D95" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E95" s="0" t="n">
+      <c r="E95" s="1" t="n">
         <v>0.293087557603687</v>
       </c>
     </row>
@@ -7661,7 +7661,7 @@
       <c r="D96" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E96" s="0" t="n">
+      <c r="E96" s="1" t="n">
         <v>0.0842433697347894</v>
       </c>
     </row>
@@ -7675,7 +7675,7 @@
       <c r="D97" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E97" s="0" t="n">
+      <c r="E97" s="1" t="n">
         <v>0.325321040500494</v>
       </c>
     </row>
@@ -7689,7 +7689,7 @@
       <c r="D98" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E98" s="0" t="n">
+      <c r="E98" s="1" t="n">
         <v>0.242351529694061</v>
       </c>
     </row>
@@ -7703,7 +7703,7 @@
       <c r="D99" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E99" s="0" t="n">
+      <c r="E99" s="1" t="n">
         <v>0.309653916211293</v>
       </c>
     </row>
@@ -7717,7 +7717,7 @@
       <c r="D100" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E100" s="0" t="n">
+      <c r="E100" s="1" t="n">
         <v>0.256591892955529</v>
       </c>
     </row>
@@ -7731,7 +7731,7 @@
       <c r="D101" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E101" s="0" t="n">
+      <c r="E101" s="1" t="n">
         <v>0.311841289522629</v>
       </c>
     </row>
@@ -7745,7 +7745,7 @@
       <c r="D102" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E102" s="0" t="n">
+      <c r="E102" s="1" t="n">
         <v>0.828047136073166</v>
       </c>
     </row>
@@ -7759,7 +7759,7 @@
       <c r="D103" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E103" s="0" t="n">
+      <c r="E103" s="1" t="n">
         <v>0.82846236430872</v>
       </c>
     </row>
@@ -7773,7 +7773,7 @@
       <c r="D104" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E104" s="0" t="n">
+      <c r="E104" s="1" t="n">
         <v>0.173913043478261</v>
       </c>
     </row>
@@ -7787,7 +7787,7 @@
       <c r="D105" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E105" s="0" t="n">
+      <c r="E105" s="1" t="n">
         <v>0.814882760992948</v>
       </c>
     </row>
@@ -7801,7 +7801,7 @@
       <c r="D106" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E106" s="0" t="n">
+      <c r="E106" s="1" t="n">
         <v>0.321120047661603</v>
       </c>
     </row>
@@ -7815,7 +7815,7 @@
       <c r="D107" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E107" s="0" t="n">
+      <c r="E107" s="1" t="n">
         <v>0.281084656084656</v>
       </c>
     </row>
@@ -7829,7 +7829,7 @@
       <c r="D108" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E108" s="0" t="n">
+      <c r="E108" s="1" t="n">
         <v>0.267499178442327</v>
       </c>
     </row>
@@ -7843,7 +7843,7 @@
       <c r="D109" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E109" s="0" t="n">
+      <c r="E109" s="1" t="n">
         <v>0.17248322147651</v>
       </c>
     </row>
@@ -7857,7 +7857,7 @@
       <c r="D110" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E110" s="0" t="n">
+      <c r="E110" s="1" t="n">
         <v>0.283030682529743</v>
       </c>
     </row>
@@ -7871,7 +7871,7 @@
       <c r="D111" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E111" s="0" t="n">
+      <c r="E111" s="1" t="n">
         <v>0.147283995625228</v>
       </c>
     </row>
@@ -7885,7 +7885,7 @@
       <c r="D112" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E112" s="0" t="n">
+      <c r="E112" s="1" t="n">
         <v>0.241170855870188</v>
       </c>
     </row>
@@ -7899,7 +7899,7 @@
       <c r="D113" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E113" s="0" t="n">
+      <c r="E113" s="1" t="n">
         <v>0.149722735674677</v>
       </c>
     </row>
@@ -7913,7 +7913,7 @@
       <c r="D114" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E114" s="0" t="n">
+      <c r="E114" s="1" t="n">
         <v>0.302150237363865</v>
       </c>
     </row>
@@ -7927,7 +7927,7 @@
       <c r="D115" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E115" s="0" t="n">
+      <c r="E115" s="1" t="n">
         <v>0.238730616660656</v>
       </c>
     </row>
@@ -7941,7 +7941,7 @@
       <c r="D116" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E116" s="0" t="n">
+      <c r="E116" s="1" t="n">
         <v>0.269824183710083</v>
       </c>
     </row>
@@ -7955,7 +7955,7 @@
       <c r="D117" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E117" s="0" t="n">
+      <c r="E117" s="1" t="n">
         <v>0.815130465238457</v>
       </c>
     </row>
@@ -7969,7 +7969,7 @@
       <c r="D118" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E118" s="0" t="n">
+      <c r="E118" s="1" t="n">
         <v>0.826587852102057</v>
       </c>
     </row>
@@ -7983,7 +7983,7 @@
       <c r="D119" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E119" s="0" t="n">
+      <c r="E119" s="1" t="n">
         <v>0.177566926465605</v>
       </c>
     </row>
@@ -7997,7 +7997,7 @@
       <c r="D120" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E120" s="0" t="n">
+      <c r="E120" s="1" t="n">
         <v>0.831370262390671</v>
       </c>
     </row>
@@ -8011,7 +8011,7 @@
       <c r="D121" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E121" s="0" t="n">
+      <c r="E121" s="1" t="n">
         <v>0.181575433911882</v>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       <c r="D122" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E122" s="0" t="n">
+      <c r="E122" s="1" t="n">
         <v>0.199220134704006</v>
       </c>
     </row>
@@ -8053,8 +8053,8 @@
   </sheetPr>
   <dimension ref="B2:R32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8688,7 +8688,7 @@
   <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/welldone_ner/Partials.xlsx
+++ b/welldone_ner/Partials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Default" sheetId="1" state="visible" r:id="rId2"/>
@@ -364,7 +364,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -680,7 +680,7 @@
                   <c:v>0.687003622760736</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.584643029753236</c:v>
+                  <c:v>0.605491694194286</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.566286326653323</c:v>
@@ -710,11 +710,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="32640148"/>
-        <c:axId val="96364209"/>
+        <c:axId val="95964035"/>
+        <c:axId val="31671082"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="32640148"/>
+        <c:axId val="95964035"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -749,14 +749,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96364209"/>
+        <c:crossAx val="31671082"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96364209"/>
+        <c:axId val="31671082"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -800,7 +800,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32640148"/>
+        <c:crossAx val="95964035"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -837,7 +837,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1153,7 +1153,7 @@
                   <c:v>21.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.2</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20.8</c:v>
@@ -1183,11 +1183,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="19782174"/>
-        <c:axId val="15596068"/>
+        <c:axId val="28174404"/>
+        <c:axId val="14206920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="19782174"/>
+        <c:axId val="28174404"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1222,14 +1222,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15596068"/>
+        <c:crossAx val="14206920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15596068"/>
+        <c:axId val="14206920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1273,7 +1273,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19782174"/>
+        <c:crossAx val="28174404"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1310,7 +1310,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2062,11 +2062,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="97730897"/>
-        <c:axId val="56451585"/>
+        <c:axId val="6557995"/>
+        <c:axId val="57986603"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97730897"/>
+        <c:axId val="6557995"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2101,14 +2101,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56451585"/>
+        <c:crossAx val="57986603"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56451585"/>
+        <c:axId val="57986603"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2152,7 +2152,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97730897"/>
+        <c:crossAx val="6557995"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2200,9 +2200,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>463680</xdr:colOff>
+      <xdr:colOff>463320</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2210,8 +2210,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6131880" y="2276280"/>
-        <a:ext cx="4237560" cy="2572200"/>
+        <a:off x="6055560" y="2276280"/>
+        <a:ext cx="4189680" cy="2571840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2230,9 +2230,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>472320</xdr:colOff>
+      <xdr:colOff>471960</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>107640</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2240,8 +2240,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10686240" y="2303280"/>
-        <a:ext cx="4263840" cy="2518560"/>
+        <a:off x="10552680" y="2303280"/>
+        <a:ext cx="4215960" cy="2518200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2265,9 +2265,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>105480</xdr:colOff>
+      <xdr:colOff>105120</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2275,8 +2275,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1636200" y="1535040"/>
-        <a:ext cx="5670000" cy="3239280"/>
+        <a:off x="1598040" y="1535040"/>
+        <a:ext cx="5536440" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2296,13 +2296,13 @@
   </sheetPr>
   <dimension ref="A1:T122"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6000,7 +6000,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8286,13 +8286,13 @@
   </sheetPr>
   <dimension ref="A1:T122"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8687,7 +8687,7 @@
       </c>
       <c r="K11" s="2" t="n">
         <f aca="false">IF(Transfer!K$6="","",VLOOKUP(Transfer!K$6,Transfer!$C$33:$E$47,3))</f>
-        <v>0.524539877300614</v>
+        <v>0.628783199505868</v>
       </c>
       <c r="L11" s="2" t="n">
         <f aca="false">IF(Transfer!L$6="","",VLOOKUP(Transfer!L$6,Transfer!$C$33:$E$47,3))</f>
@@ -8695,11 +8695,11 @@
       </c>
       <c r="M11" s="2" t="n">
         <f aca="false">SUM(Transfer!H11:L11)</f>
-        <v>2.92321514876618</v>
+        <v>3.02745847097143</v>
       </c>
       <c r="N11" s="2" t="n">
         <f aca="false">Transfer!M11/COUNTA(Transfer!H$6:L$6)</f>
-        <v>0.584643029753236</v>
+        <v>0.605491694194286</v>
       </c>
       <c r="P11" s="0"/>
       <c r="Q11" s="0"/>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="K12" s="1" t="n">
         <f aca="false">IF(Transfer!K$6="","",VLOOKUP(Transfer!K$6,Transfer!$C$33:$E$47,2))</f>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L12" s="1" t="n">
         <f aca="false">IF(Transfer!L$6="","",VLOOKUP(Transfer!L$6,Transfer!$C$33:$E$47,2))</f>
@@ -8741,11 +8741,11 @@
       </c>
       <c r="M12" s="1" t="n">
         <f aca="false">SUM(Transfer!H12:L12)</f>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N12" s="1" t="n">
         <f aca="false">Transfer!M12/COUNTA(Transfer!H$6:L$6)</f>
-        <v>11.2</v>
+        <v>14</v>
       </c>
       <c r="P12" s="0"/>
       <c r="Q12" s="0"/>
@@ -9533,12 +9533,14 @@
       <c r="C41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D41" s="1" t="n">
-        <v>6</v>
+      <c r="D41" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>0.524539877300614</v>
-      </c>
+        <v>0.628783199505868</v>
+      </c>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
       <c r="P41" s="0"/>
       <c r="Q41" s="0"/>
       <c r="T41" s="2"/>
@@ -10945,12 +10947,12 @@
   <dimension ref="B1:R36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11188,7 +11190,7 @@
       </c>
       <c r="L8" s="2" t="n">
         <f aca="false">Master!E11</f>
-        <v>0.584643029753236</v>
+        <v>0.605491694194286</v>
       </c>
       <c r="O8" s="1" t="n">
         <v>0.2</v>
@@ -11203,7 +11205,7 @@
       </c>
       <c r="R8" s="1" t="n">
         <f aca="false">Master!E12</f>
-        <v>11.2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11318,7 +11320,7 @@
       </c>
       <c r="E11" s="2" t="n">
         <f aca="false">Transfer!N11</f>
-        <v>0.584643029753236</v>
+        <v>0.605491694194286</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
@@ -11366,7 +11368,7 @@
       </c>
       <c r="E12" s="1" t="n">
         <f aca="false">Transfer!N12</f>
-        <v>11.2</v>
+        <v>14</v>
       </c>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
@@ -11807,7 +11809,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11985,9 +11987,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M1" s="0" t="n">
@@ -13295,9 +13294,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">

--- a/welldone_ner/Partials.xlsx
+++ b/welldone_ner/Partials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Default" sheetId="1" state="visible" r:id="rId2"/>
@@ -364,7 +364,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -710,11 +710,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="95964035"/>
-        <c:axId val="31671082"/>
+        <c:axId val="50621582"/>
+        <c:axId val="73138094"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95964035"/>
+        <c:axId val="50621582"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -749,14 +749,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31671082"/>
+        <c:crossAx val="73138094"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31671082"/>
+        <c:axId val="73138094"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -800,7 +800,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95964035"/>
+        <c:crossAx val="50621582"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -837,7 +837,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1183,11 +1183,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="28174404"/>
-        <c:axId val="14206920"/>
+        <c:axId val="85884102"/>
+        <c:axId val="34406692"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="28174404"/>
+        <c:axId val="85884102"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1222,14 +1222,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14206920"/>
+        <c:crossAx val="34406692"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14206920"/>
+        <c:axId val="34406692"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1273,7 +1273,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28174404"/>
+        <c:crossAx val="85884102"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1310,7 +1310,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1391,19 +1391,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.714296084910383</c:v>
+                  <c:v>0.715731779205192</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.685153308282992</c:v>
+                  <c:v>0.700567680841496</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.717264340186619</c:v>
+                  <c:v>0.72214471764331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.716139581718217</c:v>
+                  <c:v>0.713103849009108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.728442926842956</c:v>
+                  <c:v>0.725643084321478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1483,19 +1483,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.662724859564243</c:v>
+                  <c:v>0.665257480532122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.668728483710433</c:v>
+                  <c:v>0.672330184955217</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.671948399848203</c:v>
+                  <c:v>0.665147345724102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67972544304805</c:v>
+                  <c:v>0.676020514524025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.663818387982589</c:v>
+                  <c:v>0.671156511391295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1575,19 +1575,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.589971310519372</c:v>
+                  <c:v>0.597418657759686</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.595223794288105</c:v>
+                  <c:v>0.603086379994052</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.597797619047619</c:v>
+                  <c:v>0.59351714117381</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.593262069353116</c:v>
+                  <c:v>0.603358788276558</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.584180020875207</c:v>
+                  <c:v>0.596791215437604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,19 +1667,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.549441643536254</c:v>
+                  <c:v>0.551452661068127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.575114870309172</c:v>
+                  <c:v>0.576306929304586</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.546709033914423</c:v>
+                  <c:v>0.552852543857212</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54596324564614</c:v>
+                  <c:v>0.55071969422307</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.543419749642596</c:v>
+                  <c:v>0.551419425721298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1759,19 +1759,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.41977157789871</c:v>
+                  <c:v>0.406797905749355</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.378947130823618</c:v>
+                  <c:v>0.357156306911809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.412423805763749</c:v>
+                  <c:v>0.409252225081875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.387906079125121</c:v>
+                  <c:v>0.403552866762561</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3738901039879</c:v>
+                  <c:v>0.40076648229395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1851,19 +1851,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.148450545370727</c:v>
+                  <c:v>0.216421654885364</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31038412433071</c:v>
+                  <c:v>0.297510549815355</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.237279348135238</c:v>
+                  <c:v>0.260146106317619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.254643519336681</c:v>
+                  <c:v>0.25324992546834</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.319617678343468</c:v>
+                  <c:v>0.303753831571734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1943,19 +1943,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.107670654468684</c:v>
+                  <c:v>0.180300930034342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.242259656482475</c:v>
+                  <c:v>0.189680450441238</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.202790957436293</c:v>
+                  <c:v>0.172031374568147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.221919506191033</c:v>
+                  <c:v>0.209899198245516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.247468770043676</c:v>
+                  <c:v>0.259969663721838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2035,19 +2035,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0960205150311843</c:v>
+                  <c:v>0.0567451972655921</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0578723259708615</c:v>
+                  <c:v>0.0626880088354308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0290141165109211</c:v>
+                  <c:v>0.0554686264054606</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.163512976556455</c:v>
+                  <c:v>0.188701971478228</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.218504994699535</c:v>
+                  <c:v>0.228865950849767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2062,11 +2062,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="6557995"/>
-        <c:axId val="57986603"/>
+        <c:axId val="43484255"/>
+        <c:axId val="51848090"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="6557995"/>
+        <c:axId val="43484255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2101,14 +2101,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57986603"/>
+        <c:crossAx val="51848090"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57986603"/>
+        <c:axId val="51848090"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2152,7 +2152,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6557995"/>
+        <c:crossAx val="43484255"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2200,9 +2200,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>463320</xdr:colOff>
+      <xdr:colOff>462960</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2210,8 +2210,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6055560" y="2276280"/>
-        <a:ext cx="4189680" cy="2571840"/>
+        <a:off x="5979600" y="2276280"/>
+        <a:ext cx="4141440" cy="2571480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2230,9 +2230,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>471960</xdr:colOff>
+      <xdr:colOff>471600</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2240,8 +2240,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10552680" y="2303280"/>
-        <a:ext cx="4215960" cy="2518200"/>
+        <a:off x="10419480" y="2303280"/>
+        <a:ext cx="4168080" cy="2517840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2265,9 +2265,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>105120</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:rowOff>59400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2275,8 +2275,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1598040" y="1535040"/>
-        <a:ext cx="5536440" cy="3238920"/>
+        <a:off x="1235880" y="1535040"/>
+        <a:ext cx="4269240" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2296,14 +2296,11 @@
   </sheetPr>
   <dimension ref="A1:T122"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -6000,7 +5997,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8292,7 +8289,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9188,6 +9185,7 @@
       <c r="E22" s="2" t="n">
         <v>0.689802130898021</v>
       </c>
+      <c r="G22" s="0"/>
       <c r="H22" s="1" t="n">
         <f aca="false">IF(Transfer!H$6="","",VLOOKUP(Transfer!H$6,Transfer!$C$108:$E$122,2))</f>
         <v>7</v>
@@ -9233,6 +9231,8 @@
       <c r="E23" s="2" t="n">
         <v>0.680712166172107</v>
       </c>
+      <c r="G23" s="0"/>
+      <c r="H23" s="0"/>
       <c r="P23" s="0"/>
       <c r="Q23" s="0"/>
       <c r="T23" s="2"/>
@@ -9250,6 +9250,8 @@
       <c r="E24" s="2" t="n">
         <v>0.68702751738736</v>
       </c>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
       <c r="P24" s="0"/>
       <c r="Q24" s="0"/>
       <c r="T24" s="2"/>
@@ -9267,6 +9269,8 @@
       <c r="E25" s="2" t="n">
         <v>0.675815797499237</v>
       </c>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
       <c r="P25" s="0"/>
       <c r="Q25" s="0"/>
       <c r="T25" s="2"/>
@@ -9284,6 +9288,8 @@
       <c r="E26" s="2" t="n">
         <v>0.693470374848851</v>
       </c>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
       <c r="P26" s="0"/>
       <c r="Q26" s="0"/>
       <c r="T26" s="2"/>
@@ -9301,6 +9307,8 @@
       <c r="E27" s="2" t="n">
         <v>0.922351276457756</v>
       </c>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
       <c r="P27" s="0"/>
       <c r="Q27" s="0"/>
       <c r="T27" s="2"/>
@@ -9318,6 +9326,8 @@
       <c r="E28" s="2" t="n">
         <v>0.924300441826215</v>
       </c>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
       <c r="P28" s="0"/>
       <c r="Q28" s="0"/>
       <c r="T28" s="2"/>
@@ -9335,6 +9345,8 @@
       <c r="E29" s="2" t="n">
         <v>0.688642493257417</v>
       </c>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
       <c r="P29" s="0"/>
       <c r="Q29" s="0"/>
       <c r="T29" s="2"/>
@@ -9352,6 +9364,8 @@
       <c r="E30" s="2" t="n">
         <v>0.921373829122907</v>
       </c>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
       <c r="P30" s="0"/>
       <c r="Q30" s="0"/>
       <c r="T30" s="2"/>
@@ -9369,6 +9383,8 @@
       <c r="E31" s="2" t="n">
         <v>0.678088367899008</v>
       </c>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
       <c r="P31" s="0"/>
       <c r="Q31" s="0"/>
       <c r="T31" s="2"/>
@@ -9386,6 +9402,8 @@
       <c r="E32" s="2" t="n">
         <v>0.67995240928019</v>
       </c>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
       <c r="P32" s="0"/>
       <c r="Q32" s="0"/>
       <c r="T32" s="2"/>
@@ -9403,6 +9421,8 @@
       <c r="E33" s="2" t="n">
         <v>0.565734681737061</v>
       </c>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
       <c r="P33" s="0"/>
       <c r="Q33" s="0"/>
       <c r="T33" s="2"/>
@@ -9420,6 +9440,8 @@
       <c r="E34" s="2" t="n">
         <v>0.596354944726621</v>
       </c>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
       <c r="P34" s="0"/>
       <c r="Q34" s="0"/>
       <c r="T34" s="2"/>
@@ -9437,6 +9459,8 @@
       <c r="E35" s="2" t="n">
         <v>0.568835098335855</v>
       </c>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
       <c r="P35" s="0"/>
       <c r="Q35" s="0"/>
       <c r="T35" s="2"/>
@@ -9454,6 +9478,8 @@
       <c r="E36" s="2" t="n">
         <v>0.593353474320242</v>
       </c>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
       <c r="P36" s="0"/>
       <c r="Q36" s="0"/>
       <c r="T36" s="2"/>
@@ -9471,6 +9497,8 @@
       <c r="E37" s="2" t="n">
         <v>0.608381067229424</v>
       </c>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
       <c r="P37" s="0"/>
       <c r="Q37" s="0"/>
       <c r="T37" s="2"/>
@@ -9488,6 +9516,8 @@
       <c r="E38" s="2" t="n">
         <v>0.600060368246302</v>
       </c>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
       <c r="P38" s="0"/>
       <c r="Q38" s="0"/>
       <c r="T38" s="2"/>
@@ -9505,6 +9535,8 @@
       <c r="E39" s="2" t="n">
         <v>0.576350364963504</v>
       </c>
+      <c r="G39" s="0"/>
+      <c r="H39" s="0"/>
       <c r="P39" s="0"/>
       <c r="Q39" s="0"/>
       <c r="T39" s="2"/>
@@ -9522,6 +9554,8 @@
       <c r="E40" s="2" t="n">
         <v>0.640048765620238</v>
       </c>
+      <c r="G40" s="0"/>
+      <c r="H40" s="0"/>
       <c r="P40" s="0"/>
       <c r="Q40" s="0"/>
       <c r="T40" s="2"/>
@@ -10952,7 +10986,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11809,7 +11843,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11980,13 +12014,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:P80"/>
+  <dimension ref="B1:AD80"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M1" s="0" t="n">
@@ -12003,6 +12040,40 @@
         <f aca="false">ROUNDDOWN((O1-1)/10,0)+1</f>
         <v>1</v>
       </c>
+      <c r="R1" s="0" t="n">
+        <v>0.719067543335326</v>
+      </c>
+      <c r="S1" s="0" t="n">
+        <f aca="false">AVERAGE(R1:R2)</f>
+        <v>0.717167473490191</v>
+      </c>
+      <c r="U1" s="0" t="n">
+        <v>0.717167473490191</v>
+      </c>
+      <c r="W1" s="0" t="n">
+        <v>0.7171674735</v>
+      </c>
+      <c r="X1" s="0" t="n">
+        <v>0.6677901015</v>
+      </c>
+      <c r="Y1" s="0" t="n">
+        <v>0.604866005</v>
+      </c>
+      <c r="Z1" s="0" t="n">
+        <v>0.5534636786</v>
+      </c>
+      <c r="AA1" s="0" t="n">
+        <v>0.3938242336</v>
+      </c>
+      <c r="AB1" s="0" t="n">
+        <v>0.2843927644</v>
+      </c>
+      <c r="AC1" s="0" t="n">
+        <v>0.2529312056</v>
+      </c>
+      <c r="AD1" s="0" t="n">
+        <v>0.0174698795</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1"/>
@@ -12040,6 +12111,33 @@
         <f aca="false">ROUNDDOWN((O2-1)/10,0)+1</f>
         <v>1</v>
       </c>
+      <c r="R2" s="0" t="n">
+        <v>0.715267403645055</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>0.7159820534</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>0.6759318862</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>0.6109489657</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>0.5774989883</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>0.335365483</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>0.2846369753</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <v>0.1371012444</v>
+      </c>
+      <c r="AD2" s="0" t="n">
+        <v>0.0675036917</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1"/>
@@ -12047,28 +12145,36 @@
         <v>22</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.714296084910383</v>
+        <f aca="false">AVERAGE(W1,W7)</f>
+        <v>0.715731779205192</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0.662724859564243</v>
+        <f aca="false">AVERAGE(X1,X7)</f>
+        <v>0.665257480532122</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0.589971310519372</v>
+        <f aca="false">AVERAGE(Y1,Y7)</f>
+        <v>0.597418657759686</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.549441643536254</v>
+        <f aca="false">AVERAGE(Z1,Z7)</f>
+        <v>0.551452661068127</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.41977157789871</v>
+        <f aca="false">AVERAGE(AA1,AA7)</f>
+        <v>0.406797905749355</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.148450545370727</v>
+        <f aca="false">AVERAGE(AB1,AB7)</f>
+        <v>0.216421654885364</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.107670654468684</v>
+        <f aca="false">AVERAGE(AC1,AC7)</f>
+        <v>0.180300930034342</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0.0960205150311843</v>
+        <f aca="false">AVERAGE(AD1,AD7)</f>
+        <v>0.0567451972655921</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>0.70581150255947</v>
@@ -12083,6 +12189,40 @@
       <c r="P3" s="0" t="n">
         <f aca="false">ROUNDDOWN((O3-1)/10,0)+1</f>
         <v>1</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>0.715107478050257</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <f aca="false">AVERAGE(R3:R4)</f>
+        <v>0.715982053362261</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>0.715982053362261</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>0.7270250951</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>0.6583462916</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>0.5892366633</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>0.5589960538</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>0.4060806444</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>0.2830128645</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>0.1412717917</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <v>0.0819231363</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12091,28 +12231,36 @@
         <v>23</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.685153308282992</v>
+        <f aca="false">AVERAGE(W2,W8)</f>
+        <v>0.700567680841496</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0.668728483710433</v>
+        <f aca="false">AVERAGE(X2,X8)</f>
+        <v>0.672330184955217</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.595223794288105</v>
+        <f aca="false">AVERAGE(Y2,Y8)</f>
+        <v>0.603086379994052</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.575114870309172</v>
+        <f aca="false">AVERAGE(Z2,Z8)</f>
+        <v>0.576306929304586</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.378947130823618</v>
+        <f aca="false">AVERAGE(AA2,AA8)</f>
+        <v>0.357156306911809</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.31038412433071</v>
+        <f aca="false">AVERAGE(AB2,AB8)</f>
+        <v>0.297510549815355</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.242259656482475</v>
+        <f aca="false">AVERAGE(AC2,AC8)</f>
+        <v>0.189680450441238</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>0.0578723259708615</v>
+        <f aca="false">AVERAGE(AD2,AD8)</f>
+        <v>0.0626880088354308</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>0.664495114006515</v>
@@ -12123,6 +12271,33 @@
       <c r="P4" s="0" t="n">
         <f aca="false">ROUNDDOWN((O4-1)/10,0)+1</f>
         <v>1</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>0.716856628674265</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>0.7100681163</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>0.672315586</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>0.6134555072</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>0.5554761428</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>0.4191996544</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>0.2518563316</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <v>0.1978788903</v>
+      </c>
+      <c r="AD4" s="0" t="n">
+        <v>0.2138909664</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12131,28 +12306,36 @@
         <v>24</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.717264340186619</v>
+        <f aca="false">AVERAGE(W3,W9)</f>
+        <v>0.72214471764331</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0.671948399848203</v>
+        <f aca="false">AVERAGE(X3,X9)</f>
+        <v>0.665147345724102</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0.597797619047619</v>
+        <f aca="false">AVERAGE(Y3,Y9)</f>
+        <v>0.59351714117381</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.546709033914423</v>
+        <f aca="false">AVERAGE(Z3,Z9)</f>
+        <v>0.552852543857212</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.412423805763749</v>
+        <f aca="false">AVERAGE(AA3,AA9)</f>
+        <v>0.409252225081875</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.237279348135238</v>
+        <f aca="false">AVERAGE(AB3,AB9)</f>
+        <v>0.260146106317619</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.202790957436293</v>
+        <f aca="false">AVERAGE(AC3,AC9)</f>
+        <v>0.172031374568147</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>0.0290141165109211</v>
+        <f aca="false">AVERAGE(AD3,AD9)</f>
+        <v>0.0554686264054606</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>0.724220623501199</v>
@@ -12167,6 +12350,40 @@
       <c r="P5" s="0" t="n">
         <f aca="false">ROUNDDOWN((O5-1)/10,0)+1</f>
         <v>1</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>0.727546714888487</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <f aca="false">AVERAGE(R5:R6)</f>
+        <v>0.727025095129345</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>0.727025095129345</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>0.7228432418</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>0.6784946348</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>0.60940241</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>0.5594191018</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>0.4276428606</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <v>0.2878899848</v>
+      </c>
+      <c r="AC5" s="0" t="n">
+        <v>0.2724705574</v>
+      </c>
+      <c r="AD5" s="0" t="n">
+        <v>0.239226907</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12175,28 +12392,36 @@
         <v>25</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.716139581718217</v>
+        <f aca="false">AVERAGE(W4,W10)</f>
+        <v>0.713103849009108</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0.67972544304805</v>
+        <f aca="false">AVERAGE(X4,X10)</f>
+        <v>0.676020514524025</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0.593262069353116</v>
+        <f aca="false">AVERAGE(Y4,Y10)</f>
+        <v>0.603358788276558</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.54596324564614</v>
+        <f aca="false">AVERAGE(Z4,Z10)</f>
+        <v>0.55071969422307</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.387906079125121</v>
+        <f aca="false">AVERAGE(AA4,AA10)</f>
+        <v>0.403552866762561</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0.254643519336681</v>
+        <f aca="false">AVERAGE(AB4,AB10)</f>
+        <v>0.25324992546834</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0.221919506191033</v>
+        <f aca="false">AVERAGE(AC4,AC10)</f>
+        <v>0.209899198245516</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>0.163512976556455</v>
+        <f aca="false">AVERAGE(AD4,AD10)</f>
+        <v>0.188701971478228</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>0.710308056872038</v>
@@ -12207,6 +12432,9 @@
       <c r="P6" s="0" t="n">
         <f aca="false">ROUNDDOWN((O6-1)/10,0)+1</f>
         <v>1</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>0.726503475370202</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12215,28 +12443,36 @@
         <v>26</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.728442926842956</v>
+        <f aca="false">AVERAGE(W5,W11)</f>
+        <v>0.725643084321478</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>0.663818387982589</v>
+        <f aca="false">AVERAGE(X5,X11)</f>
+        <v>0.671156511391295</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0.584180020875207</v>
+        <f aca="false">AVERAGE(Y5,Y11)</f>
+        <v>0.596791215437604</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.543419749642596</v>
+        <f aca="false">AVERAGE(Z5,Z11)</f>
+        <v>0.551419425721298</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.3738901039879</v>
+        <f aca="false">AVERAGE(AA5,AA11)</f>
+        <v>0.40076648229395</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.319617678343468</v>
+        <f aca="false">AVERAGE(AB5,AB11)</f>
+        <v>0.303753831571734</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.247468770043676</v>
+        <f aca="false">AVERAGE(AC5,AC11)</f>
+        <v>0.259969663721838</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>0.218504994699535</v>
+        <f aca="false">AVERAGE(AD5,AD11)</f>
+        <v>0.228865950849767</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>0.712759643916914</v>
@@ -12252,6 +12488,40 @@
         <f aca="false">ROUNDDOWN((O7-1)/10,0)+1</f>
         <v>1</v>
       </c>
+      <c r="R7" s="0" t="n">
+        <v>0.688802083333333</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <f aca="false">AVERAGE(R7:R8)</f>
+        <v>0.710068116330069</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>0.710068116330069</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>0.714296084910383</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>0.662724859564243</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>0.589971310519372</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>0.549441643536254</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>0.41977157789871</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>0.148450545370727</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <v>0.107670654468684</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <v>0.0960205150311843</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M8" s="0" t="n">
@@ -12264,6 +12534,33 @@
         <f aca="false">ROUNDDOWN((O8-1)/10,0)+1</f>
         <v>1</v>
       </c>
+      <c r="R8" s="0" t="n">
+        <v>0.731334149326806</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>0.685153308282992</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>0.668728483710433</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>0.595223794288105</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>0.575114870309172</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>0.378947130823618</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>0.31038412433071</v>
+      </c>
+      <c r="AC8" s="0" t="n">
+        <v>0.242259656482475</v>
+      </c>
+      <c r="AD8" s="0" t="n">
+        <v>0.0578723259708615</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M9" s="0" t="n">
@@ -12280,6 +12577,40 @@
         <f aca="false">ROUNDDOWN((O9-1)/10,0)+1</f>
         <v>1</v>
       </c>
+      <c r="R9" s="0" t="n">
+        <v>0.718796992481203</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <f aca="false">AVERAGE(R9:R10)</f>
+        <v>0.722843241799168</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>0.722843241799168</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <v>0.717264340186619</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>0.671948399848203</v>
+      </c>
+      <c r="Y9" s="0" t="n">
+        <v>0.597797619047619</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <v>0.546709033914423</v>
+      </c>
+      <c r="AA9" s="0" t="n">
+        <v>0.412423805763749</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <v>0.237279348135238</v>
+      </c>
+      <c r="AC9" s="0" t="n">
+        <v>0.202790957436293</v>
+      </c>
+      <c r="AD9" s="0" t="n">
+        <v>0.0290141165109211</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M10" s="0" t="n">
@@ -12292,6 +12623,33 @@
         <f aca="false">ROUNDDOWN((O10-1)/10,0)+1</f>
         <v>1</v>
       </c>
+      <c r="R10" s="0" t="n">
+        <v>0.726889491117133</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>0.716139581718217</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>0.67972544304805</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>0.593262069353116</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>0.54596324564614</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>0.387906079125121</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <v>0.254643519336681</v>
+      </c>
+      <c r="AC10" s="0" t="n">
+        <v>0.221919506191033</v>
+      </c>
+      <c r="AD10" s="0" t="n">
+        <v>0.163512976556455</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M11" s="0" t="n">
@@ -12308,6 +12666,40 @@
         <f aca="false">ROUNDDOWN((O11-1)/10,0)+1</f>
         <v>2</v>
       </c>
+      <c r="R11" s="0" t="n">
+        <v>0.669312977099237</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <f aca="false">AVERAGE(R11:R12)</f>
+        <v>0.6677901014915</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>0.6677901014915</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>0.728442926842956</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>0.663818387982589</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>0.584180020875207</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>0.543419749642596</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>0.3738901039879</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <v>0.319617678343468</v>
+      </c>
+      <c r="AC11" s="0" t="n">
+        <v>0.247468770043676</v>
+      </c>
+      <c r="AD11" s="0" t="n">
+        <v>0.218504994699535</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M12" s="0" t="n">
@@ -12320,6 +12712,9 @@
         <f aca="false">ROUNDDOWN((O12-1)/10,0)+1</f>
         <v>2</v>
       </c>
+      <c r="R12" s="0" t="n">
+        <v>0.666267225883763</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M13" s="0" t="n">
@@ -12336,6 +12731,16 @@
         <f aca="false">ROUNDDOWN((O13-1)/10,0)+1</f>
         <v>2</v>
       </c>
+      <c r="R13" s="0" t="n">
+        <v>0.667271627344223</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <f aca="false">AVERAGE(R13:R14)</f>
+        <v>0.675931886179664</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>0.675931886179664</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M14" s="0" t="n">
@@ -12348,6 +12753,9 @@
         <f aca="false">ROUNDDOWN((O14-1)/10,0)+1</f>
         <v>2</v>
       </c>
+      <c r="R14" s="0" t="n">
+        <v>0.684592145015106</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M15" s="0" t="n">
@@ -12364,6 +12772,16 @@
         <f aca="false">ROUNDDOWN((O15-1)/10,0)+1</f>
         <v>2</v>
       </c>
+      <c r="R15" s="0" t="n">
+        <v>0.642468239564428</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <f aca="false">AVERAGE(R15:R16)</f>
+        <v>0.658346291619923</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>0.658346291619923</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M16" s="0" t="n">
@@ -12376,6 +12794,9 @@
         <f aca="false">ROUNDDOWN((O16-1)/10,0)+1</f>
         <v>2</v>
       </c>
+      <c r="R16" s="0" t="n">
+        <v>0.674224343675418</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M17" s="0" t="n">
@@ -12392,6 +12813,16 @@
         <f aca="false">ROUNDDOWN((O17-1)/10,0)+1</f>
         <v>2</v>
       </c>
+      <c r="R17" s="0" t="n">
+        <v>0.666463414634146</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <f aca="false">AVERAGE(R17:R18)</f>
+        <v>0.672315585960738</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>0.672315585960738</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M18" s="0" t="n">
@@ -12404,6 +12835,9 @@
         <f aca="false">ROUNDDOWN((O18-1)/10,0)+1</f>
         <v>2</v>
       </c>
+      <c r="R18" s="0" t="n">
+        <v>0.678167757287329</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M19" s="0" t="n">
@@ -12420,6 +12854,16 @@
         <f aca="false">ROUNDDOWN((O19-1)/10,0)+1</f>
         <v>2</v>
       </c>
+      <c r="R19" s="0" t="n">
+        <v>0.665668064709407</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <f aca="false">AVERAGE(R19:R20)</f>
+        <v>0.678494634800274</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>0.678494634800274</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M20" s="0" t="n">
@@ -12432,6 +12876,9 @@
         <f aca="false">ROUNDDOWN((O20-1)/10,0)+1</f>
         <v>2</v>
       </c>
+      <c r="R20" s="0" t="n">
+        <v>0.691321204891142</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M21" s="0" t="n">
@@ -12448,6 +12895,16 @@
         <f aca="false">ROUNDDOWN((O21-1)/10,0)+1</f>
         <v>3</v>
       </c>
+      <c r="R21" s="0" t="n">
+        <v>0.601116625310174</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <f aca="false">AVERAGE(R21:R22)</f>
+        <v>0.604866004962779</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>0.604866004962779</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M22" s="0" t="n">
@@ -12460,6 +12917,9 @@
         <f aca="false">ROUNDDOWN((O22-1)/10,0)+1</f>
         <v>3</v>
       </c>
+      <c r="R22" s="0" t="n">
+        <v>0.608615384615385</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M23" s="0" t="n">
@@ -12476,6 +12936,16 @@
         <f aca="false">ROUNDDOWN((O23-1)/10,0)+1</f>
         <v>3</v>
       </c>
+      <c r="R23" s="0" t="n">
+        <v>0.603716113310996</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <f aca="false">AVERAGE(R23:R24)</f>
+        <v>0.610948965746407</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <v>0.610948965746407</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M24" s="0" t="n">
@@ -12488,6 +12958,9 @@
         <f aca="false">ROUNDDOWN((O24-1)/10,0)+1</f>
         <v>3</v>
       </c>
+      <c r="R24" s="0" t="n">
+        <v>0.618181818181818</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M25" s="0" t="n">
@@ -12504,6 +12977,16 @@
         <f aca="false">ROUNDDOWN((O25-1)/10,0)+1</f>
         <v>3</v>
       </c>
+      <c r="R25" s="0" t="n">
+        <v>0.567397178024617</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <f aca="false">AVERAGE(R25:R26)</f>
+        <v>0.58923666327285</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <v>0.58923666327285</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M26" s="0" t="n">
@@ -12516,6 +12999,9 @@
         <f aca="false">ROUNDDOWN((O26-1)/10,0)+1</f>
         <v>3</v>
       </c>
+      <c r="R26" s="0" t="n">
+        <v>0.611076148521082</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M27" s="0" t="n">
@@ -12532,6 +13018,16 @@
         <f aca="false">ROUNDDOWN((O27-1)/10,0)+1</f>
         <v>3</v>
       </c>
+      <c r="R27" s="0" t="n">
+        <v>0.596691729323308</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <f aca="false">AVERAGE(R27:R28)</f>
+        <v>0.61345550719695</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>0.61345550719695</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M28" s="0" t="n">
@@ -12544,6 +13040,9 @@
         <f aca="false">ROUNDDOWN((O28-1)/10,0)+1</f>
         <v>3</v>
       </c>
+      <c r="R28" s="0" t="n">
+        <v>0.630219285070592</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M29" s="0" t="n">
@@ -12560,6 +13059,16 @@
         <f aca="false">ROUNDDOWN((O29-1)/10,0)+1</f>
         <v>3</v>
       </c>
+      <c r="R29" s="0" t="n">
+        <v>0.599701046337818</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <f aca="false">AVERAGE(R29:R30)</f>
+        <v>0.609402409961362</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <v>0.609402409961362</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M30" s="0" t="n">
@@ -12572,6 +13081,9 @@
         <f aca="false">ROUNDDOWN((O30-1)/10,0)+1</f>
         <v>3</v>
       </c>
+      <c r="R30" s="0" t="n">
+        <v>0.619103773584906</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M31" s="0" t="n">
@@ -12588,6 +13100,16 @@
         <f aca="false">ROUNDDOWN((O31-1)/10,0)+1</f>
         <v>4</v>
       </c>
+      <c r="R31" s="0" t="n">
+        <v>0.547146401985112</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <f aca="false">AVERAGE(R31:R32)</f>
+        <v>0.553463678631741</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <v>0.553463678631741</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M32" s="0" t="n">
@@ -12600,6 +13122,9 @@
         <f aca="false">ROUNDDOWN((O32-1)/10,0)+1</f>
         <v>4</v>
       </c>
+      <c r="R32" s="0" t="n">
+        <v>0.559780955278369</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M33" s="0" t="n">
@@ -12616,6 +13141,16 @@
         <f aca="false">ROUNDDOWN((O33-1)/10,0)+1</f>
         <v>4</v>
       </c>
+      <c r="R33" s="0" t="n">
+        <v>0.58356940509915</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <f aca="false">AVERAGE(R33:R34)</f>
+        <v>0.577498988263861</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>0.577498988263861</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M34" s="0" t="n">
@@ -12628,6 +13163,9 @@
         <f aca="false">ROUNDDOWN((O34-1)/10,0)+1</f>
         <v>4</v>
       </c>
+      <c r="R34" s="0" t="n">
+        <v>0.571428571428571</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M35" s="0" t="n">
@@ -12644,6 +13182,16 @@
         <f aca="false">ROUNDDOWN((O35-1)/10,0)+1</f>
         <v>4</v>
       </c>
+      <c r="R35" s="0" t="n">
+        <v>0.543764988009592</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <f aca="false">AVERAGE(R35:R36)</f>
+        <v>0.558996053845629</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <v>0.558996053845629</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M36" s="0" t="n">
@@ -12656,6 +13204,9 @@
         <f aca="false">ROUNDDOWN((O36-1)/10,0)+1</f>
         <v>4</v>
       </c>
+      <c r="R36" s="0" t="n">
+        <v>0.574227119681665</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M37" s="0" t="n">
@@ -12672,6 +13223,16 @@
         <f aca="false">ROUNDDOWN((O37-1)/10,0)+1</f>
         <v>4</v>
       </c>
+      <c r="R37" s="0" t="n">
+        <v>0.518695782231529</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <f aca="false">AVERAGE(R37:R38)</f>
+        <v>0.555476142779406</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <v>0.555476142779406</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M38" s="0" t="n">
@@ -12684,6 +13245,9 @@
         <f aca="false">ROUNDDOWN((O38-1)/10,0)+1</f>
         <v>4</v>
       </c>
+      <c r="R38" s="0" t="n">
+        <v>0.592256503327284</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M39" s="0" t="n">
@@ -12700,6 +13264,16 @@
         <f aca="false">ROUNDDOWN((O39-1)/10,0)+1</f>
         <v>4</v>
       </c>
+      <c r="R39" s="0" t="n">
+        <v>0.548948948948949</v>
+      </c>
+      <c r="S39" s="0" t="n">
+        <f aca="false">AVERAGE(R39:R40)</f>
+        <v>0.559419101831553</v>
+      </c>
+      <c r="U39" s="0" t="n">
+        <v>0.559419101831553</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M40" s="0" t="n">
@@ -12712,6 +13286,9 @@
         <f aca="false">ROUNDDOWN((O40-1)/10,0)+1</f>
         <v>4</v>
       </c>
+      <c r="R40" s="0" t="n">
+        <v>0.569889254714157</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M41" s="0" t="n">
@@ -12728,6 +13305,16 @@
         <f aca="false">ROUNDDOWN((O41-1)/10,0)+1</f>
         <v>5</v>
       </c>
+      <c r="R41" s="0" t="n">
+        <v>0.354802259887006</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <f aca="false">AVERAGE(R41:R42)</f>
+        <v>0.393824233631742</v>
+      </c>
+      <c r="U41" s="0" t="n">
+        <v>0.393824233631742</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M42" s="0" t="n">
@@ -12740,6 +13327,9 @@
         <f aca="false">ROUNDDOWN((O42-1)/10,0)+1</f>
         <v>5</v>
       </c>
+      <c r="R42" s="0" t="n">
+        <v>0.432846207376479</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M43" s="0" t="n">
@@ -12756,6 +13346,16 @@
         <f aca="false">ROUNDDOWN((O43-1)/10,0)+1</f>
         <v>5</v>
       </c>
+      <c r="R43" s="0" t="n">
+        <v>0.378324468085106</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <f aca="false">AVERAGE(R43:R44)</f>
+        <v>0.335365483003641</v>
+      </c>
+      <c r="U43" s="0" t="n">
+        <v>0.335365483003641</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M44" s="0" t="n">
@@ -12768,6 +13368,9 @@
         <f aca="false">ROUNDDOWN((O44-1)/10,0)+1</f>
         <v>5</v>
       </c>
+      <c r="R44" s="0" t="n">
+        <v>0.292406497922176</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M45" s="0" t="n">
@@ -12784,6 +13387,16 @@
         <f aca="false">ROUNDDOWN((O45-1)/10,0)+1</f>
         <v>5</v>
       </c>
+      <c r="R45" s="0" t="n">
+        <v>0.397606382978723</v>
+      </c>
+      <c r="S45" s="0" t="n">
+        <f aca="false">AVERAGE(R45:R46)</f>
+        <v>0.40608064438085</v>
+      </c>
+      <c r="U45" s="0" t="n">
+        <v>0.40608064438085</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M46" s="0" t="n">
@@ -12796,6 +13409,9 @@
         <f aca="false">ROUNDDOWN((O46-1)/10,0)+1</f>
         <v>5</v>
       </c>
+      <c r="R46" s="0" t="n">
+        <v>0.414554905782976</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M47" s="0" t="n">
@@ -12812,6 +13428,16 @@
         <f aca="false">ROUNDDOWN((O47-1)/10,0)+1</f>
         <v>5</v>
       </c>
+      <c r="R47" s="0" t="n">
+        <v>0.417873651771957</v>
+      </c>
+      <c r="S47" s="0" t="n">
+        <f aca="false">AVERAGE(R47:R48)</f>
+        <v>0.419199654421648</v>
+      </c>
+      <c r="U47" s="0" t="n">
+        <v>0.419199654421648</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O48" s="0" t="n">
@@ -12821,6 +13447,9 @@
         <f aca="false">ROUNDDOWN((O48-1)/10,0)+1</f>
         <v>5</v>
       </c>
+      <c r="R48" s="0" t="n">
+        <v>0.420525657071339</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M49" s="0" t="n">
@@ -12837,6 +13466,16 @@
         <f aca="false">ROUNDDOWN((O49-1)/10,0)+1</f>
         <v>5</v>
       </c>
+      <c r="R49" s="0" t="n">
+        <v>0.388308977035491</v>
+      </c>
+      <c r="S49" s="0" t="n">
+        <f aca="false">AVERAGE(R49:R50)</f>
+        <v>0.427642860610769</v>
+      </c>
+      <c r="U49" s="0" t="n">
+        <v>0.427642860610769</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M50" s="0" t="n">
@@ -12849,6 +13488,9 @@
         <f aca="false">ROUNDDOWN((O50-1)/10,0)+1</f>
         <v>5</v>
       </c>
+      <c r="R50" s="0" t="n">
+        <v>0.466976744186047</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M51" s="0" t="n">
@@ -12865,6 +13507,16 @@
         <f aca="false">ROUNDDOWN((O51-1)/10,0)+1</f>
         <v>6</v>
       </c>
+      <c r="R51" s="0" t="n">
+        <v>0.318681318681319</v>
+      </c>
+      <c r="S51" s="0" t="n">
+        <f aca="false">AVERAGE(R51:R52)</f>
+        <v>0.284392764384427</v>
+      </c>
+      <c r="U51" s="0" t="n">
+        <v>0.284392764384427</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M52" s="0" t="n">
@@ -12877,6 +13529,9 @@
         <f aca="false">ROUNDDOWN((O52-1)/10,0)+1</f>
         <v>6</v>
       </c>
+      <c r="R52" s="0" t="n">
+        <v>0.250104210087536</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M53" s="0" t="n">
@@ -12893,6 +13548,16 @@
         <f aca="false">ROUNDDOWN((O53-1)/10,0)+1</f>
         <v>6</v>
       </c>
+      <c r="R53" s="0" t="n">
+        <v>0.313767342582711</v>
+      </c>
+      <c r="S53" s="0" t="n">
+        <f aca="false">AVERAGE(R53:R54)</f>
+        <v>0.284636975256113</v>
+      </c>
+      <c r="U53" s="0" t="n">
+        <v>0.284636975256113</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M54" s="0" t="n">
@@ -12905,6 +13570,9 @@
         <f aca="false">ROUNDDOWN((O54-1)/10,0)+1</f>
         <v>6</v>
       </c>
+      <c r="R54" s="0" t="n">
+        <v>0.255506607929515</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M55" s="0" t="n">
@@ -12921,6 +13589,16 @@
         <f aca="false">ROUNDDOWN((O55-1)/10,0)+1</f>
         <v>6</v>
       </c>
+      <c r="R55" s="0" t="n">
+        <v>0.325905292479109</v>
+      </c>
+      <c r="S55" s="0" t="n">
+        <f aca="false">AVERAGE(R55:R56)</f>
+        <v>0.28301286453086</v>
+      </c>
+      <c r="U55" s="0" t="n">
+        <v>0.28301286453086</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M56" s="0" t="n">
@@ -12933,6 +13611,9 @@
         <f aca="false">ROUNDDOWN((O56-1)/10,0)+1</f>
         <v>6</v>
       </c>
+      <c r="R56" s="0" t="n">
+        <v>0.240120436582612</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M57" s="0" t="n">
@@ -12949,6 +13630,16 @@
         <f aca="false">ROUNDDOWN((O57-1)/10,0)+1</f>
         <v>6</v>
       </c>
+      <c r="R57" s="0" t="n">
+        <v>0.268277945619335</v>
+      </c>
+      <c r="S57" s="0" t="n">
+        <f aca="false">AVERAGE(R57:R58)</f>
+        <v>0.25185633163847</v>
+      </c>
+      <c r="U57" s="0" t="n">
+        <v>0.25185633163847</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M58" s="0" t="n">
@@ -12961,6 +13652,9 @@
         <f aca="false">ROUNDDOWN((O58-1)/10,0)+1</f>
         <v>6</v>
       </c>
+      <c r="R58" s="0" t="n">
+        <v>0.235434717657604</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M59" s="0" t="n">
@@ -12977,6 +13671,16 @@
         <f aca="false">ROUNDDOWN((O59-1)/10,0)+1</f>
         <v>6</v>
       </c>
+      <c r="R59" s="0" t="n">
+        <v>0.312099969521487</v>
+      </c>
+      <c r="S59" s="0" t="n">
+        <f aca="false">AVERAGE(R59:R60)</f>
+        <v>0.287889984760744</v>
+      </c>
+      <c r="U59" s="0" t="n">
+        <v>0.287889984760744</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M60" s="0" t="n">
@@ -12989,6 +13693,9 @@
         <f aca="false">ROUNDDOWN((O60-1)/10,0)+1</f>
         <v>6</v>
       </c>
+      <c r="R60" s="0" t="n">
+        <v>0.26368</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M61" s="0" t="n">
@@ -13005,6 +13712,16 @@
         <f aca="false">ROUNDDOWN((O61-1)/10,0)+1</f>
         <v>7</v>
       </c>
+      <c r="R61" s="0" t="n">
+        <v>0.284316922073688</v>
+      </c>
+      <c r="S61" s="0" t="n">
+        <f aca="false">AVERAGE(R61:R62)</f>
+        <v>0.252931205612405</v>
+      </c>
+      <c r="U61" s="0" t="n">
+        <v>0.252931205612405</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M62" s="0" t="n">
@@ -13017,6 +13734,9 @@
         <f aca="false">ROUNDDOWN((O62-1)/10,0)+1</f>
         <v>7</v>
       </c>
+      <c r="R62" s="0" t="n">
+        <v>0.221545489151123</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M63" s="0" t="n">
@@ -13033,6 +13753,16 @@
         <f aca="false">ROUNDDOWN((O63-1)/10,0)+1</f>
         <v>7</v>
       </c>
+      <c r="R63" s="0" t="n">
+        <v>0.235679214402619</v>
+      </c>
+      <c r="S63" s="0" t="n">
+        <f aca="false">AVERAGE(R63:R64)</f>
+        <v>0.137101244440475</v>
+      </c>
+      <c r="U63" s="0" t="n">
+        <v>0.137101244440475</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M64" s="0" t="n">
@@ -13045,6 +13775,9 @@
         <f aca="false">ROUNDDOWN((O64-1)/10,0)+1</f>
         <v>7</v>
       </c>
+      <c r="R64" s="0" t="n">
+        <v>0.0385232744783307</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M65" s="0" t="n">
@@ -13061,6 +13794,16 @@
         <f aca="false">ROUNDDOWN((O65-1)/10,0)+1</f>
         <v>7</v>
       </c>
+      <c r="R65" s="0" t="n">
+        <v>0.275862068965517</v>
+      </c>
+      <c r="S65" s="0" t="n">
+        <f aca="false">AVERAGE(R65:R66)</f>
+        <v>0.141271791721066</v>
+      </c>
+      <c r="U65" s="0" t="n">
+        <v>0.141271791721066</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M66" s="0" t="n">
@@ -13073,6 +13816,9 @@
         <f aca="false">ROUNDDOWN((O66-1)/10,0)+1</f>
         <v>7</v>
       </c>
+      <c r="R66" s="0" t="n">
+        <v>0.0066815144766147</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M67" s="0" t="n">
@@ -13089,6 +13835,16 @@
         <f aca="false">ROUNDDOWN((O67-1)/10,0)+1</f>
         <v>7</v>
       </c>
+      <c r="R67" s="0" t="n">
+        <v>0.177318064277798</v>
+      </c>
+      <c r="S67" s="0" t="n">
+        <f aca="false">AVERAGE(R67:R68)</f>
+        <v>0.197878890294928</v>
+      </c>
+      <c r="U67" s="0" t="n">
+        <v>0.197878890294928</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M68" s="0" t="n">
@@ -13101,6 +13857,9 @@
         <f aca="false">ROUNDDOWN((O68-1)/10,0)+1</f>
         <v>7</v>
       </c>
+      <c r="R68" s="0" t="n">
+        <v>0.218439716312057</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M69" s="0" t="n">
@@ -13117,6 +13876,16 @@
         <f aca="false">ROUNDDOWN((O69-1)/10,0)+1</f>
         <v>7</v>
       </c>
+      <c r="R69" s="0" t="n">
+        <v>0.277491669191154</v>
+      </c>
+      <c r="S69" s="0" t="n">
+        <f aca="false">AVERAGE(R69:R70)</f>
+        <v>0.272470557361396</v>
+      </c>
+      <c r="U69" s="0" t="n">
+        <v>0.272470557361396</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M70" s="0" t="n">
@@ -13129,6 +13898,9 @@
         <f aca="false">ROUNDDOWN((O70-1)/10,0)+1</f>
         <v>7</v>
       </c>
+      <c r="R70" s="0" t="n">
+        <v>0.267449445531637</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M71" s="0" t="n">
@@ -13145,6 +13917,16 @@
         <f aca="false">ROUNDDOWN((O71-1)/10,0)+1</f>
         <v>8</v>
       </c>
+      <c r="R71" s="0" t="n">
+        <v>0.0349397590361446</v>
+      </c>
+      <c r="S71" s="0" t="n">
+        <f aca="false">AVERAGE(R71:R72)</f>
+        <v>0.0174698795180723</v>
+      </c>
+      <c r="U71" s="0" t="n">
+        <v>0.0174698795180723</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M72" s="0" t="n">
@@ -13157,6 +13939,9 @@
         <f aca="false">ROUNDDOWN((O72-1)/10,0)+1</f>
         <v>8</v>
       </c>
+      <c r="R72" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M73" s="0" t="n">
@@ -13173,6 +13958,16 @@
         <f aca="false">ROUNDDOWN((O73-1)/10,0)+1</f>
         <v>8</v>
       </c>
+      <c r="R73" s="0" t="n">
+        <v>0.0958535271943996</v>
+      </c>
+      <c r="S73" s="0" t="n">
+        <f aca="false">AVERAGE(R73:R74)</f>
+        <v>0.0675036917275375</v>
+      </c>
+      <c r="U73" s="0" t="n">
+        <v>0.0675036917275375</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M74" s="0" t="n">
@@ -13185,6 +13980,9 @@
         <f aca="false">ROUNDDOWN((O74-1)/10,0)+1</f>
         <v>8</v>
       </c>
+      <c r="R74" s="0" t="n">
+        <v>0.0391538562606753</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M75" s="0" t="n">
@@ -13201,6 +13999,16 @@
         <f aca="false">ROUNDDOWN((O75-1)/10,0)+1</f>
         <v>8</v>
       </c>
+      <c r="R75" s="0" t="n">
+        <v>0.123222748815166</v>
+      </c>
+      <c r="S75" s="0" t="n">
+        <f aca="false">AVERAGE(R75:R76)</f>
+        <v>0.0819231363348385</v>
+      </c>
+      <c r="U75" s="0" t="n">
+        <v>0.0819231363348385</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M76" s="0" t="n">
@@ -13213,6 +14021,9 @@
         <f aca="false">ROUNDDOWN((O76-1)/10,0)+1</f>
         <v>8</v>
       </c>
+      <c r="R76" s="0" t="n">
+        <v>0.0406235238545111</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M77" s="0" t="n">
@@ -13229,6 +14040,16 @@
         <f aca="false">ROUNDDOWN((O77-1)/10,0)+1</f>
         <v>8</v>
       </c>
+      <c r="R77" s="0" t="n">
+        <v>0.2642684192321</v>
+      </c>
+      <c r="S77" s="0" t="n">
+        <f aca="false">AVERAGE(R77:R78)</f>
+        <v>0.213890966372807</v>
+      </c>
+      <c r="U77" s="0" t="n">
+        <v>0.213890966372807</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M78" s="0" t="n">
@@ -13241,6 +14062,9 @@
         <f aca="false">ROUNDDOWN((O78-1)/10,0)+1</f>
         <v>8</v>
       </c>
+      <c r="R78" s="0" t="n">
+        <v>0.163513513513514</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M79" s="0" t="n">
@@ -13257,6 +14081,16 @@
         <f aca="false">ROUNDDOWN((O79-1)/10,0)+1</f>
         <v>8</v>
       </c>
+      <c r="R79" s="0" t="n">
+        <v>0.297395318166831</v>
+      </c>
+      <c r="S79" s="0" t="n">
+        <f aca="false">AVERAGE(R79:R80)</f>
+        <v>0.239226906994279</v>
+      </c>
+      <c r="U79" s="0" t="n">
+        <v>0.239226906994279</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M80" s="0" t="n">
@@ -13268,6 +14102,9 @@
       <c r="P80" s="0" t="n">
         <f aca="false">ROUNDDOWN((O80-1)/10,0)+1</f>
         <v>8</v>
+      </c>
+      <c r="R80" s="0" t="n">
+        <v>0.181058495821727</v>
       </c>
     </row>
   </sheetData>
@@ -13294,6 +14131,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
